--- a/static/timesheet.xlsx
+++ b/static/timesheet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="151">
   <si>
     <t>SuperPres</t>
   </si>
@@ -176,6 +176,9 @@
     <t>Doc: Func spec (U,  overview + flowchart)</t>
   </si>
   <si>
+    <t>Doc: func spec</t>
+  </si>
+  <si>
     <t>Term 2/Week 5</t>
   </si>
   <si>
@@ -191,6 +194,9 @@
     <t>Doc: Func Spec (UI), QA Manual (general)</t>
   </si>
   <si>
+    <t>Doc: QA Manual</t>
+  </si>
+  <si>
     <t>Term 2/Week 6</t>
   </si>
   <si>
@@ -233,6 +239,9 @@
     <t>Design Doc (Technical Architecture Revision)</t>
   </si>
   <si>
+    <t>Doc: Revision</t>
+  </si>
+  <si>
     <t>Term 2/Week 9</t>
   </si>
   <si>
@@ -248,6 +257,9 @@
     <t>Doc: Marketing Strategy (Add to document)</t>
   </si>
   <si>
+    <t>Doc: finance</t>
+  </si>
+  <si>
     <t>Term 2/Week 10</t>
   </si>
   <si>
@@ -314,6 +326,9 @@
     <t>Prod: Testing. Doc: Testing Report</t>
   </si>
   <si>
+    <t>Prod: Research object API</t>
+  </si>
+  <si>
     <t>Term 3/Week 2</t>
   </si>
   <si>
@@ -344,6 +359,9 @@
     <t>Doc: Marketing Strategy (further look into competitors)</t>
   </si>
   <si>
+    <t>Prod: Attempt API</t>
+  </si>
+  <si>
     <t>Term 3/Week 4</t>
   </si>
   <si>
@@ -359,6 +377,9 @@
     <t>Prod. Testing</t>
   </si>
   <si>
+    <t>Prod: Research Junit</t>
+  </si>
+  <si>
     <t>Term 3/Week 5</t>
   </si>
   <si>
@@ -389,6 +410,9 @@
     <t>Prod: Testing. Doc: Marketing Strategy (ammend strategy and new research)</t>
   </si>
   <si>
+    <t>Prod: Testing spec</t>
+  </si>
+  <si>
     <t>Term 3/Week 7</t>
   </si>
   <si>
@@ -413,12 +437,15 @@
     <t>Doc: Gantt chart - to google sheet for clearer graphic(3 hr), Individual report(3 hr), meeting minute reviewed(4 hr)</t>
   </si>
   <si>
-    <t>Doc: All documents (Final edits before submission), Individual Report, Prod: Final linting before submission,</t>
+    <t>Doc: Financial Proposal (Rewritten for Supervisors Comments), Individual Report, Prod: Final linting before submission,</t>
   </si>
   <si>
     <t>Prod: Testing. Doc: Testing Reports, Sales presentation (Present), Individual Report</t>
   </si>
   <si>
+    <t>Doc: User Manual</t>
+  </si>
+  <si>
     <t>Term 3/Week 9</t>
   </si>
   <si>
@@ -432,6 +459,9 @@
   </si>
   <si>
     <t>Salary Sheet</t>
+  </si>
+  <si>
+    <t>Total Salary</t>
   </si>
   <si>
     <t>Wage =</t>
@@ -445,7 +475,7 @@
     <numFmt numFmtId="164" formatCode="mmm&quot; &quot;d"/>
     <numFmt numFmtId="165" formatCode="[$£-809]#,##0.00"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -520,6 +550,11 @@
       <b/>
       <sz val="9.0"/>
       <color rgb="FF434343"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF666666"/>
       <name val="Roboto"/>
     </font>
     <font>
@@ -734,7 +769,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="116">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -935,9 +970,21 @@
     <xf borderId="5" fillId="5" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="16" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="16" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="8" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="5" fillId="0" fontId="16" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="12" fillId="5" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="center"/>
     </xf>
@@ -950,63 +997,63 @@
     <xf borderId="14" fillId="5" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="16" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="15" fillId="0" fontId="17" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="16" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="17" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="9" fillId="5" fontId="16" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="5" fontId="17" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="16" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="6" fillId="0" fontId="17" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="15" fillId="4" fontId="16" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="15" fillId="4" fontId="17" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="5" fontId="16" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="16" fillId="5" fontId="17" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="4" fontId="17" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="15" fillId="4" fontId="18" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1033,28 +1080,28 @@
     <xf borderId="17" fillId="0" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="18" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="0" fontId="19" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="5" fontId="18" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="5" fontId="19" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="19" fillId="5" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="5" fontId="18" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="20" fillId="5" fontId="19" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="17" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="16" fillId="0" fontId="18" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3901,9 +3948,15 @@
       <c r="AG29" s="64">
         <v>0.0</v>
       </c>
-      <c r="AH29" s="59"/>
-      <c r="AI29" s="59"/>
-      <c r="AJ29" s="60"/>
+      <c r="AH29" s="70">
+        <v>0.0</v>
+      </c>
+      <c r="AI29" s="70">
+        <v>0.0</v>
+      </c>
+      <c r="AJ29" s="71">
+        <v>0.0</v>
+      </c>
       <c r="AK29" s="55"/>
       <c r="AL29" s="64">
         <v>0.0</v>
@@ -4013,8 +4066,12 @@
       <c r="AH30" s="59">
         <v>0.0</v>
       </c>
-      <c r="AI30" s="59"/>
-      <c r="AJ30" s="60"/>
+      <c r="AI30" s="70">
+        <v>0.0</v>
+      </c>
+      <c r="AJ30" s="71">
+        <v>0.0</v>
+      </c>
       <c r="AK30" s="55"/>
       <c r="AL30" s="64">
         <v>0.0</v>
@@ -4120,8 +4177,12 @@
       <c r="AH31" s="59">
         <v>2.0</v>
       </c>
-      <c r="AI31" s="59"/>
-      <c r="AJ31" s="60"/>
+      <c r="AI31" s="70">
+        <v>0.0</v>
+      </c>
+      <c r="AJ31" s="71">
+        <v>0.0</v>
+      </c>
       <c r="AK31" s="55"/>
       <c r="AL31" s="64">
         <v>0.0</v>
@@ -4231,11 +4292,15 @@
       <c r="AH32" s="59">
         <v>0.0</v>
       </c>
-      <c r="AI32" s="59"/>
-      <c r="AJ32" s="60">
+      <c r="AI32" s="70">
+        <v>0.0</v>
+      </c>
+      <c r="AJ32" s="71">
         <v>1.0</v>
       </c>
-      <c r="AK32" s="55"/>
+      <c r="AK32" s="72" t="s">
+        <v>54</v>
+      </c>
       <c r="AL32" s="64">
         <v>0.0</v>
       </c>
@@ -4264,7 +4329,7 @@
     <row r="33" ht="21.75" customHeight="1">
       <c r="A33" s="62"/>
       <c r="B33" s="63" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C33" s="64">
         <v>0.0</v>
@@ -4279,7 +4344,7 @@
         <v>4.0</v>
       </c>
       <c r="G33" s="55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H33" s="59">
         <v>0.0</v>
@@ -4294,7 +4359,7 @@
         <v>4.0</v>
       </c>
       <c r="L33" s="55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M33" s="64">
         <v>0.0</v>
@@ -4309,7 +4374,7 @@
         <v>1.0</v>
       </c>
       <c r="Q33" s="55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R33" s="64">
         <v>0.0</v>
@@ -4331,7 +4396,7 @@
         <v>3.0</v>
       </c>
       <c r="AA33" s="55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB33" s="64">
         <v>0.0</v>
@@ -4346,11 +4411,15 @@
       <c r="AH33" s="59">
         <v>2.0</v>
       </c>
-      <c r="AI33" s="59"/>
+      <c r="AI33" s="70">
+        <v>0.0</v>
+      </c>
       <c r="AJ33" s="60">
         <v>1.0</v>
       </c>
-      <c r="AK33" s="55"/>
+      <c r="AK33" s="72" t="s">
+        <v>60</v>
+      </c>
       <c r="AL33" s="64">
         <v>0.0</v>
       </c>
@@ -4379,7 +4448,7 @@
     <row r="34" ht="21.75" customHeight="1">
       <c r="A34" s="62"/>
       <c r="B34" s="63" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C34" s="64">
         <v>0.0</v>
@@ -4394,7 +4463,7 @@
         <v>8.0</v>
       </c>
       <c r="G34" s="55" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H34" s="59">
         <v>0.0</v>
@@ -4409,7 +4478,7 @@
         <v>6.0</v>
       </c>
       <c r="L34" s="55" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M34" s="64">
         <v>0.0</v>
@@ -4424,7 +4493,7 @@
         <v>4.0</v>
       </c>
       <c r="Q34" s="55" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="R34" s="64">
         <v>0.0</v>
@@ -4446,7 +4515,7 @@
         <v>2.0</v>
       </c>
       <c r="AA34" s="55" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AB34" s="64">
         <v>0.0</v>
@@ -4461,8 +4530,12 @@
       <c r="AH34" s="59">
         <v>0.0</v>
       </c>
-      <c r="AI34" s="59"/>
-      <c r="AJ34" s="60"/>
+      <c r="AI34" s="70">
+        <v>0.0</v>
+      </c>
+      <c r="AJ34" s="71">
+        <v>0.0</v>
+      </c>
       <c r="AK34" s="55"/>
       <c r="AL34" s="64">
         <v>0.0</v>
@@ -4492,7 +4565,7 @@
     <row r="35" ht="21.75" customHeight="1">
       <c r="A35" s="62"/>
       <c r="B35" s="63" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C35" s="64">
         <v>0.0</v>
@@ -4507,7 +4580,7 @@
         <v>1.0</v>
       </c>
       <c r="G35" s="55" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H35" s="59">
         <v>0.0</v>
@@ -4522,7 +4595,7 @@
         <v>3.0</v>
       </c>
       <c r="L35" s="55" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M35" s="64">
         <v>0.0</v>
@@ -4537,7 +4610,7 @@
         <v>1.0</v>
       </c>
       <c r="Q35" s="55" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="R35" s="64">
         <v>0.0</v>
@@ -4559,7 +4632,7 @@
         <v>2.0</v>
       </c>
       <c r="AA35" s="55" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AB35" s="64">
         <v>0.0</v>
@@ -4574,8 +4647,12 @@
       <c r="AH35" s="59">
         <v>0.0</v>
       </c>
-      <c r="AI35" s="59"/>
-      <c r="AJ35" s="60"/>
+      <c r="AI35" s="70">
+        <v>0.0</v>
+      </c>
+      <c r="AJ35" s="71">
+        <v>0.0</v>
+      </c>
       <c r="AK35" s="55"/>
       <c r="AL35" s="64">
         <v>0.0</v>
@@ -4605,7 +4682,7 @@
     <row r="36" ht="21.75" customHeight="1">
       <c r="A36" s="62"/>
       <c r="B36" s="63" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C36" s="64">
         <v>0.0</v>
@@ -4620,7 +4697,7 @@
         <v>2.0</v>
       </c>
       <c r="G36" s="55" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H36" s="59">
         <v>0.0</v>
@@ -4635,13 +4712,13 @@
         <v>2.0</v>
       </c>
       <c r="L36" s="55" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M36" s="64">
         <v>0.0</v>
       </c>
       <c r="N36" s="59">
-        <v>1.75</v>
+        <v>2.0</v>
       </c>
       <c r="O36" s="59">
         <v>0.0</v>
@@ -4650,7 +4727,7 @@
         <v>2.0</v>
       </c>
       <c r="Q36" s="55" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R36" s="64">
         <v>0.0</v>
@@ -4685,11 +4762,15 @@
       <c r="AH36" s="59">
         <v>1.0</v>
       </c>
-      <c r="AI36" s="59"/>
+      <c r="AI36" s="70">
+        <v>0.0</v>
+      </c>
       <c r="AJ36" s="60">
         <v>1.0</v>
       </c>
-      <c r="AK36" s="55"/>
+      <c r="AK36" s="72" t="s">
+        <v>75</v>
+      </c>
       <c r="AL36" s="64">
         <v>0.0</v>
       </c>
@@ -4703,7 +4784,7 @@
       </c>
       <c r="AR36" s="59">
         <f t="shared" si="23"/>
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AS36" s="59">
         <f t="shared" si="23"/>
@@ -4718,7 +4799,7 @@
     <row r="37" ht="21.75" customHeight="1">
       <c r="A37" s="62"/>
       <c r="B37" s="63" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C37" s="64">
         <v>0.0</v>
@@ -4733,7 +4814,7 @@
         <v>3.0</v>
       </c>
       <c r="G37" s="55" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H37" s="59">
         <v>0.0</v>
@@ -4748,7 +4829,7 @@
         <v>1.0</v>
       </c>
       <c r="L37" s="55" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M37" s="64">
         <v>0.0</v>
@@ -4763,7 +4844,7 @@
         <v>2.0</v>
       </c>
       <c r="Q37" s="55" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R37" s="64">
         <v>0.0</v>
@@ -4785,7 +4866,7 @@
         <v>4.0</v>
       </c>
       <c r="AA37" s="55" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AB37" s="64">
         <v>0.0</v>
@@ -4800,9 +4881,15 @@
       <c r="AH37" s="59">
         <v>2.0</v>
       </c>
-      <c r="AI37" s="59"/>
-      <c r="AJ37" s="60"/>
-      <c r="AK37" s="55"/>
+      <c r="AI37" s="70">
+        <v>0.0</v>
+      </c>
+      <c r="AJ37" s="71">
+        <v>2.0</v>
+      </c>
+      <c r="AK37" s="72" t="s">
+        <v>81</v>
+      </c>
       <c r="AL37" s="64">
         <v>0.0</v>
       </c>
@@ -4824,14 +4911,14 @@
       </c>
       <c r="AT37" s="60">
         <f t="shared" si="24"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AU37" s="62"/>
     </row>
     <row r="38" ht="21.75" customHeight="1">
       <c r="A38" s="62"/>
       <c r="B38" s="63" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C38" s="64">
         <v>0.0</v>
@@ -4846,7 +4933,7 @@
         <v>4.0</v>
       </c>
       <c r="G38" s="55" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H38" s="59">
         <v>0.0</v>
@@ -4861,7 +4948,7 @@
         <v>3.0</v>
       </c>
       <c r="L38" s="55" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M38" s="64">
         <v>0.0</v>
@@ -4876,7 +4963,7 @@
         <v>1.0</v>
       </c>
       <c r="Q38" s="55" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R38" s="64">
         <v>0.0</v>
@@ -4897,8 +4984,8 @@
       <c r="Z38" s="60">
         <v>4.0</v>
       </c>
-      <c r="AA38" s="70" t="s">
-        <v>82</v>
+      <c r="AA38" s="73" t="s">
+        <v>86</v>
       </c>
       <c r="AB38" s="64">
         <v>0.0</v>
@@ -4913,11 +5000,15 @@
       <c r="AH38" s="59">
         <v>0.0</v>
       </c>
-      <c r="AI38" s="59"/>
-      <c r="AJ38" s="60">
-        <v>1.0</v>
-      </c>
-      <c r="AK38" s="55"/>
+      <c r="AI38" s="70">
+        <v>0.0</v>
+      </c>
+      <c r="AJ38" s="71">
+        <v>2.0</v>
+      </c>
+      <c r="AK38" s="72" t="s">
+        <v>81</v>
+      </c>
       <c r="AL38" s="64">
         <v>0.0</v>
       </c>
@@ -4939,14 +5030,14 @@
       </c>
       <c r="AT38" s="60">
         <f t="shared" si="25"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU38" s="62"/>
     </row>
     <row r="39" ht="21.75" customHeight="1">
       <c r="A39" s="62"/>
       <c r="B39" s="63" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C39" s="64">
         <v>0.0</v>
@@ -4957,7 +5048,7 @@
       </c>
       <c r="F39" s="59"/>
       <c r="G39" s="55" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H39" s="59">
         <v>0.0</v>
@@ -5015,9 +5106,15 @@
       <c r="AG39" s="64">
         <v>0.0</v>
       </c>
-      <c r="AH39" s="59"/>
-      <c r="AI39" s="59"/>
-      <c r="AJ39" s="60"/>
+      <c r="AH39" s="70">
+        <v>0.0</v>
+      </c>
+      <c r="AI39" s="70">
+        <v>0.0</v>
+      </c>
+      <c r="AJ39" s="71">
+        <v>0.0</v>
+      </c>
       <c r="AK39" s="55"/>
       <c r="AL39" s="64">
         <v>0.0</v>
@@ -5047,7 +5144,7 @@
     <row r="40" ht="21.75" customHeight="1">
       <c r="A40" s="62"/>
       <c r="B40" s="63" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C40" s="64">
         <v>0.0</v>
@@ -5058,7 +5155,7 @@
       </c>
       <c r="F40" s="59"/>
       <c r="G40" s="55" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H40" s="59">
         <v>0.0</v>
@@ -5086,7 +5183,7 @@
         <v>0.0</v>
       </c>
       <c r="Q40" s="55" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="R40" s="64">
         <v>0.0</v>
@@ -5118,9 +5215,15 @@
       <c r="AG40" s="64">
         <v>0.0</v>
       </c>
-      <c r="AH40" s="59"/>
-      <c r="AI40" s="59"/>
-      <c r="AJ40" s="60"/>
+      <c r="AH40" s="70">
+        <v>0.0</v>
+      </c>
+      <c r="AI40" s="70">
+        <v>0.0</v>
+      </c>
+      <c r="AJ40" s="71">
+        <v>0.0</v>
+      </c>
       <c r="AK40" s="55"/>
       <c r="AL40" s="64">
         <v>0.0</v>
@@ -5150,7 +5253,7 @@
     <row r="41" ht="21.75" customHeight="1">
       <c r="A41" s="62"/>
       <c r="B41" s="63" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C41" s="64">
         <v>0.0</v>
@@ -5161,7 +5264,7 @@
       </c>
       <c r="F41" s="59"/>
       <c r="G41" s="55" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H41" s="59">
         <v>0.0</v>
@@ -5176,7 +5279,7 @@
         <v>0.0</v>
       </c>
       <c r="L41" s="55" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M41" s="64">
         <v>0.0</v>
@@ -5191,7 +5294,7 @@
         <v>0.0</v>
       </c>
       <c r="Q41" s="55" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="R41" s="64">
         <v>0.0</v>
@@ -5223,9 +5326,15 @@
       <c r="AG41" s="64">
         <v>0.0</v>
       </c>
-      <c r="AH41" s="59"/>
-      <c r="AI41" s="59"/>
-      <c r="AJ41" s="60"/>
+      <c r="AH41" s="70">
+        <v>0.0</v>
+      </c>
+      <c r="AI41" s="70">
+        <v>0.0</v>
+      </c>
+      <c r="AJ41" s="71">
+        <v>0.0</v>
+      </c>
       <c r="AK41" s="55"/>
       <c r="AL41" s="64">
         <v>0.0</v>
@@ -5255,7 +5364,7 @@
     <row r="42" ht="21.75" customHeight="1">
       <c r="A42" s="62"/>
       <c r="B42" s="63" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C42" s="64">
         <v>0.0</v>
@@ -5266,7 +5375,7 @@
       </c>
       <c r="F42" s="59"/>
       <c r="G42" s="55" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H42" s="59">
         <v>0.0</v>
@@ -5281,7 +5390,7 @@
         <v>0.0</v>
       </c>
       <c r="L42" s="55" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M42" s="64">
         <v>0.0</v>
@@ -5296,7 +5405,7 @@
         <v>1.0</v>
       </c>
       <c r="Q42" s="55" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="R42" s="64">
         <v>0.0</v>
@@ -5328,9 +5437,15 @@
       <c r="AG42" s="64">
         <v>0.0</v>
       </c>
-      <c r="AH42" s="59"/>
-      <c r="AI42" s="59"/>
-      <c r="AJ42" s="60"/>
+      <c r="AH42" s="70">
+        <v>0.0</v>
+      </c>
+      <c r="AI42" s="70">
+        <v>0.0</v>
+      </c>
+      <c r="AJ42" s="71">
+        <v>0.0</v>
+      </c>
       <c r="AK42" s="55"/>
       <c r="AL42" s="64">
         <v>0.0</v>
@@ -5409,7 +5524,7 @@
     <row r="44" ht="21.75" customHeight="1">
       <c r="A44" s="62"/>
       <c r="B44" s="63" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C44" s="64"/>
       <c r="D44" s="59"/>
@@ -5418,7 +5533,7 @@
       </c>
       <c r="F44" s="59"/>
       <c r="G44" s="55" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H44" s="59">
         <v>0.0</v>
@@ -5433,7 +5548,7 @@
         <v>0.0</v>
       </c>
       <c r="L44" s="55" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M44" s="58">
         <v>0.0</v>
@@ -5448,7 +5563,7 @@
         <v>0.0</v>
       </c>
       <c r="Q44" s="55" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="R44" s="58"/>
       <c r="S44" s="59"/>
@@ -5468,20 +5583,28 @@
         <v>3.0</v>
       </c>
       <c r="AA44" s="55" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AB44" s="58"/>
       <c r="AC44" s="59"/>
       <c r="AD44" s="59"/>
       <c r="AE44" s="60"/>
       <c r="AF44" s="55"/>
-      <c r="AG44" s="58"/>
-      <c r="AH44" s="59"/>
+      <c r="AG44" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="AH44" s="70">
+        <v>0.0</v>
+      </c>
       <c r="AI44" s="59">
         <v>2.0</v>
       </c>
-      <c r="AJ44" s="60"/>
-      <c r="AK44" s="55"/>
+      <c r="AJ44" s="71">
+        <v>0.0</v>
+      </c>
+      <c r="AK44" s="72" t="s">
+        <v>104</v>
+      </c>
       <c r="AL44" s="58"/>
       <c r="AM44" s="59"/>
       <c r="AN44" s="59"/>
@@ -5508,7 +5631,7 @@
     <row r="45" ht="21.75" customHeight="1">
       <c r="A45" s="62"/>
       <c r="B45" s="63" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C45" s="64"/>
       <c r="D45" s="59"/>
@@ -5519,7 +5642,7 @@
         <v>2.0</v>
       </c>
       <c r="G45" s="55" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H45" s="59">
         <v>0.0</v>
@@ -5534,7 +5657,7 @@
         <v>0.0</v>
       </c>
       <c r="L45" s="55" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M45" s="58">
         <v>0.0</v>
@@ -5549,7 +5672,7 @@
         <v>2.0</v>
       </c>
       <c r="Q45" s="55" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="R45" s="58"/>
       <c r="S45" s="59"/>
@@ -5569,20 +5692,28 @@
         <v>2.0</v>
       </c>
       <c r="AA45" s="55" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AB45" s="58"/>
       <c r="AC45" s="59"/>
       <c r="AD45" s="59"/>
       <c r="AE45" s="60"/>
       <c r="AF45" s="55"/>
-      <c r="AG45" s="58"/>
-      <c r="AH45" s="59"/>
+      <c r="AG45" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="AH45" s="70">
+        <v>0.0</v>
+      </c>
       <c r="AI45" s="59">
         <v>2.0</v>
       </c>
-      <c r="AJ45" s="60"/>
-      <c r="AK45" s="55"/>
+      <c r="AJ45" s="71">
+        <v>0.0</v>
+      </c>
+      <c r="AK45" s="72" t="s">
+        <v>104</v>
+      </c>
       <c r="AL45" s="58"/>
       <c r="AM45" s="59"/>
       <c r="AN45" s="59"/>
@@ -5609,7 +5740,7 @@
     <row r="46" ht="21.75" customHeight="1">
       <c r="A46" s="62"/>
       <c r="B46" s="63" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C46" s="64"/>
       <c r="D46" s="59"/>
@@ -5620,7 +5751,7 @@
         <v>1.0</v>
       </c>
       <c r="G46" s="55" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H46" s="59">
         <v>0.0</v>
@@ -5635,7 +5766,7 @@
         <v>2.0</v>
       </c>
       <c r="L46" s="55" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="M46" s="58">
         <v>0.0</v>
@@ -5650,7 +5781,7 @@
         <v>7.0</v>
       </c>
       <c r="Q46" s="55" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="R46" s="58"/>
       <c r="S46" s="59"/>
@@ -5670,20 +5801,28 @@
         <v>6.0</v>
       </c>
       <c r="AA46" s="55" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AB46" s="58"/>
       <c r="AC46" s="59"/>
       <c r="AD46" s="59"/>
       <c r="AE46" s="60"/>
       <c r="AF46" s="55"/>
-      <c r="AG46" s="58"/>
-      <c r="AH46" s="59"/>
+      <c r="AG46" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="AH46" s="70">
+        <v>0.0</v>
+      </c>
       <c r="AI46" s="59">
         <v>4.0</v>
       </c>
-      <c r="AJ46" s="60"/>
-      <c r="AK46" s="55"/>
+      <c r="AJ46" s="71">
+        <v>0.0</v>
+      </c>
+      <c r="AK46" s="72" t="s">
+        <v>115</v>
+      </c>
       <c r="AL46" s="58"/>
       <c r="AM46" s="59"/>
       <c r="AN46" s="59"/>
@@ -5710,7 +5849,7 @@
     <row r="47" ht="21.75" customHeight="1">
       <c r="A47" s="62"/>
       <c r="B47" s="63" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C47" s="64"/>
       <c r="D47" s="59">
@@ -5721,7 +5860,7 @@
       </c>
       <c r="F47" s="59"/>
       <c r="G47" s="55" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H47" s="59">
         <v>0.0</v>
@@ -5736,7 +5875,7 @@
         <v>0.5</v>
       </c>
       <c r="L47" s="55" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="M47" s="58">
         <v>0.0</v>
@@ -5751,7 +5890,7 @@
         <v>1.0</v>
       </c>
       <c r="Q47" s="55" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="R47" s="58"/>
       <c r="S47" s="59"/>
@@ -5771,18 +5910,28 @@
         <v>0.0</v>
       </c>
       <c r="AA47" s="55" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AB47" s="58"/>
       <c r="AC47" s="59"/>
       <c r="AD47" s="59"/>
       <c r="AE47" s="60"/>
       <c r="AF47" s="55"/>
-      <c r="AG47" s="58"/>
-      <c r="AH47" s="59"/>
-      <c r="AI47" s="59"/>
-      <c r="AJ47" s="60"/>
-      <c r="AK47" s="55"/>
+      <c r="AG47" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="AH47" s="70">
+        <v>0.0</v>
+      </c>
+      <c r="AI47" s="70">
+        <v>2.0</v>
+      </c>
+      <c r="AJ47" s="71">
+        <v>0.0</v>
+      </c>
+      <c r="AK47" s="72" t="s">
+        <v>121</v>
+      </c>
       <c r="AL47" s="58"/>
       <c r="AM47" s="59"/>
       <c r="AN47" s="59"/>
@@ -5798,7 +5947,7 @@
       </c>
       <c r="AS47" s="59">
         <f t="shared" si="33"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AT47" s="60">
         <f t="shared" si="33"/>
@@ -5809,7 +5958,7 @@
     <row r="48" ht="21.75" customHeight="1">
       <c r="A48" s="62"/>
       <c r="B48" s="63" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C48" s="64"/>
       <c r="D48" s="59">
@@ -5820,7 +5969,7 @@
       </c>
       <c r="F48" s="59"/>
       <c r="G48" s="55" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="H48" s="59">
         <v>0.0</v>
@@ -5836,7 +5985,7 @@
         <v>0.0</v>
       </c>
       <c r="L48" s="55" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="M48" s="58">
         <v>0.0</v>
@@ -5851,7 +6000,7 @@
         <v>0.0</v>
       </c>
       <c r="Q48" s="55" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="R48" s="58"/>
       <c r="S48" s="59"/>
@@ -5871,18 +6020,28 @@
         <v>0.0</v>
       </c>
       <c r="AA48" s="55" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AB48" s="58"/>
       <c r="AC48" s="59"/>
       <c r="AD48" s="59"/>
       <c r="AE48" s="60"/>
       <c r="AF48" s="55"/>
-      <c r="AG48" s="58"/>
-      <c r="AH48" s="59"/>
-      <c r="AI48" s="59"/>
-      <c r="AJ48" s="60"/>
-      <c r="AK48" s="55"/>
+      <c r="AG48" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="AH48" s="70">
+        <v>1.5</v>
+      </c>
+      <c r="AI48" s="70">
+        <v>3.0</v>
+      </c>
+      <c r="AJ48" s="71">
+        <v>0.0</v>
+      </c>
+      <c r="AK48" s="72" t="s">
+        <v>121</v>
+      </c>
       <c r="AL48" s="58"/>
       <c r="AM48" s="59"/>
       <c r="AN48" s="59"/>
@@ -5894,11 +6053,11 @@
       </c>
       <c r="AR48" s="59">
         <f t="shared" si="34"/>
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AS48" s="59">
         <f t="shared" si="34"/>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AT48" s="60">
         <f t="shared" si="34"/>
@@ -5909,7 +6068,7 @@
     <row r="49" ht="21.75" customHeight="1">
       <c r="A49" s="62"/>
       <c r="B49" s="63" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C49" s="64"/>
       <c r="D49" s="59">
@@ -5922,7 +6081,7 @@
         <v>1.0</v>
       </c>
       <c r="G49" s="55" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="H49" s="59">
         <v>0.0</v>
@@ -5937,7 +6096,7 @@
         <v>4.0</v>
       </c>
       <c r="L49" s="55" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="M49" s="58">
         <v>0.0</v>
@@ -5952,7 +6111,7 @@
         <v>4.0</v>
       </c>
       <c r="Q49" s="55" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="R49" s="58"/>
       <c r="S49" s="59"/>
@@ -5972,18 +6131,28 @@
         <v>5.0</v>
       </c>
       <c r="AA49" s="55" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="AB49" s="58"/>
       <c r="AC49" s="59"/>
       <c r="AD49" s="59"/>
       <c r="AE49" s="60"/>
       <c r="AF49" s="55"/>
-      <c r="AG49" s="58"/>
-      <c r="AH49" s="59"/>
-      <c r="AI49" s="59"/>
-      <c r="AJ49" s="60"/>
-      <c r="AK49" s="55"/>
+      <c r="AG49" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="AH49" s="70">
+        <v>1.5</v>
+      </c>
+      <c r="AI49" s="70">
+        <v>3.0</v>
+      </c>
+      <c r="AJ49" s="71">
+        <v>0.0</v>
+      </c>
+      <c r="AK49" s="72" t="s">
+        <v>132</v>
+      </c>
       <c r="AL49" s="58"/>
       <c r="AM49" s="59"/>
       <c r="AN49" s="59"/>
@@ -5995,11 +6164,11 @@
       </c>
       <c r="AR49" s="59">
         <f t="shared" si="35"/>
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AS49" s="59">
         <f t="shared" si="35"/>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AT49" s="60">
         <f t="shared" si="35"/>
@@ -6010,7 +6179,7 @@
     <row r="50" ht="21.75" customHeight="1">
       <c r="A50" s="62"/>
       <c r="B50" s="63" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C50" s="64"/>
       <c r="D50" s="59"/>
@@ -6021,7 +6190,7 @@
         <v>4.0</v>
       </c>
       <c r="G50" s="55" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="H50" s="59">
         <v>0.0</v>
@@ -6036,7 +6205,7 @@
         <v>4.0</v>
       </c>
       <c r="L50" s="55" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="M50" s="58">
         <v>0.0</v>
@@ -6051,7 +6220,7 @@
         <v>4.0</v>
       </c>
       <c r="Q50" s="55" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="R50" s="58"/>
       <c r="S50" s="59"/>
@@ -6071,18 +6240,28 @@
         <v>8.0</v>
       </c>
       <c r="AA50" s="55" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="AB50" s="58"/>
       <c r="AC50" s="59"/>
       <c r="AD50" s="59"/>
       <c r="AE50" s="60"/>
       <c r="AF50" s="55"/>
-      <c r="AG50" s="58"/>
-      <c r="AH50" s="59"/>
-      <c r="AI50" s="59"/>
-      <c r="AJ50" s="60"/>
-      <c r="AK50" s="55"/>
+      <c r="AG50" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="AH50" s="70">
+        <v>0.0</v>
+      </c>
+      <c r="AI50" s="70">
+        <v>6.0</v>
+      </c>
+      <c r="AJ50" s="71">
+        <v>0.0</v>
+      </c>
+      <c r="AK50" s="72" t="s">
+        <v>132</v>
+      </c>
       <c r="AL50" s="58"/>
       <c r="AM50" s="59"/>
       <c r="AN50" s="59"/>
@@ -6098,7 +6277,7 @@
       </c>
       <c r="AS50" s="59">
         <f t="shared" si="36"/>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AT50" s="60">
         <f t="shared" si="36"/>
@@ -6109,7 +6288,7 @@
     <row r="51" ht="21.75" customHeight="1">
       <c r="A51" s="62"/>
       <c r="B51" s="63" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C51" s="64"/>
       <c r="D51" s="59"/>
@@ -6120,7 +6299,7 @@
         <v>10.0</v>
       </c>
       <c r="G51" s="55" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="H51" s="59">
         <v>0.0</v>
@@ -6135,20 +6314,22 @@
         <v>10.0</v>
       </c>
       <c r="L51" s="55" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="M51" s="58">
         <v>0.0</v>
       </c>
-      <c r="N51" s="59"/>
+      <c r="N51" s="59">
+        <v>2.0</v>
+      </c>
       <c r="O51" s="59">
         <v>2.0</v>
       </c>
       <c r="P51" s="60">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="Q51" s="55" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="R51" s="58"/>
       <c r="S51" s="59"/>
@@ -6168,18 +6349,28 @@
         <v>15.0</v>
       </c>
       <c r="AA51" s="55" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="AB51" s="58"/>
       <c r="AC51" s="59"/>
       <c r="AD51" s="59"/>
       <c r="AE51" s="60"/>
       <c r="AF51" s="55"/>
-      <c r="AG51" s="58"/>
-      <c r="AH51" s="59"/>
-      <c r="AI51" s="59"/>
-      <c r="AJ51" s="60"/>
-      <c r="AK51" s="55"/>
+      <c r="AG51" s="74">
+        <v>0.0</v>
+      </c>
+      <c r="AH51" s="70">
+        <v>0.0</v>
+      </c>
+      <c r="AI51" s="70">
+        <v>0.0</v>
+      </c>
+      <c r="AJ51" s="71">
+        <v>8.0</v>
+      </c>
+      <c r="AK51" s="72" t="s">
+        <v>143</v>
+      </c>
       <c r="AL51" s="58"/>
       <c r="AM51" s="59"/>
       <c r="AN51" s="59"/>
@@ -6191,7 +6382,7 @@
       </c>
       <c r="AR51" s="59">
         <f t="shared" si="37"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AS51" s="59">
         <f t="shared" si="37"/>
@@ -6199,14 +6390,14 @@
       </c>
       <c r="AT51" s="60">
         <f t="shared" si="37"/>
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AU51" s="62"/>
     </row>
     <row r="52" ht="21.75" customHeight="1">
       <c r="A52" s="62"/>
       <c r="B52" s="63" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C52" s="64"/>
       <c r="D52" s="59"/>
@@ -6277,7 +6468,7 @@
     <row r="53" ht="21.75" customHeight="1">
       <c r="A53" s="62"/>
       <c r="B53" s="63" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C53" s="64"/>
       <c r="D53" s="59"/>
@@ -6349,382 +6540,382 @@
       <c r="A54" s="62"/>
       <c r="B54" s="65"/>
       <c r="C54" s="66"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="71"/>
-      <c r="I54" s="71"/>
-      <c r="J54" s="71"/>
-      <c r="K54" s="73"/>
-      <c r="L54" s="72"/>
-      <c r="M54" s="74"/>
-      <c r="N54" s="71"/>
-      <c r="O54" s="71"/>
-      <c r="P54" s="73"/>
-      <c r="Q54" s="72"/>
-      <c r="R54" s="74"/>
-      <c r="S54" s="71"/>
-      <c r="T54" s="71"/>
-      <c r="U54" s="73"/>
-      <c r="V54" s="72"/>
-      <c r="W54" s="74"/>
-      <c r="X54" s="71"/>
-      <c r="Y54" s="71"/>
-      <c r="Z54" s="73"/>
-      <c r="AA54" s="72"/>
-      <c r="AB54" s="74"/>
-      <c r="AC54" s="71"/>
-      <c r="AD54" s="71"/>
-      <c r="AE54" s="73"/>
-      <c r="AF54" s="72"/>
-      <c r="AG54" s="74"/>
-      <c r="AH54" s="71"/>
-      <c r="AI54" s="71"/>
-      <c r="AJ54" s="73"/>
-      <c r="AK54" s="72"/>
-      <c r="AL54" s="74"/>
-      <c r="AM54" s="71"/>
-      <c r="AN54" s="71"/>
-      <c r="AO54" s="73"/>
-      <c r="AP54" s="72"/>
-      <c r="AQ54" s="74"/>
-      <c r="AR54" s="71"/>
-      <c r="AS54" s="71"/>
-      <c r="AT54" s="73"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="75"/>
+      <c r="I54" s="75"/>
+      <c r="J54" s="75"/>
+      <c r="K54" s="77"/>
+      <c r="L54" s="76"/>
+      <c r="M54" s="78"/>
+      <c r="N54" s="75"/>
+      <c r="O54" s="75"/>
+      <c r="P54" s="77"/>
+      <c r="Q54" s="76"/>
+      <c r="R54" s="78"/>
+      <c r="S54" s="75"/>
+      <c r="T54" s="75"/>
+      <c r="U54" s="77"/>
+      <c r="V54" s="76"/>
+      <c r="W54" s="78"/>
+      <c r="X54" s="75"/>
+      <c r="Y54" s="75"/>
+      <c r="Z54" s="77"/>
+      <c r="AA54" s="76"/>
+      <c r="AB54" s="78"/>
+      <c r="AC54" s="75"/>
+      <c r="AD54" s="75"/>
+      <c r="AE54" s="77"/>
+      <c r="AF54" s="76"/>
+      <c r="AG54" s="78"/>
+      <c r="AH54" s="75"/>
+      <c r="AI54" s="75"/>
+      <c r="AJ54" s="77"/>
+      <c r="AK54" s="76"/>
+      <c r="AL54" s="78"/>
+      <c r="AM54" s="75"/>
+      <c r="AN54" s="75"/>
+      <c r="AO54" s="77"/>
+      <c r="AP54" s="76"/>
+      <c r="AQ54" s="78"/>
+      <c r="AR54" s="75"/>
+      <c r="AS54" s="75"/>
+      <c r="AT54" s="77"/>
       <c r="AU54" s="62"/>
     </row>
     <row r="55" ht="21.0" customHeight="1">
-      <c r="A55" s="75"/>
-      <c r="B55" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="C55" s="77">
+      <c r="A55" s="79"/>
+      <c r="B55" s="80" t="s">
+        <v>146</v>
+      </c>
+      <c r="C55" s="81">
         <f t="shared" ref="C55:F55" si="40">sum(C13:C54)</f>
         <v>9</v>
       </c>
-      <c r="D55" s="78">
+      <c r="D55" s="82">
         <f t="shared" si="40"/>
         <v>24</v>
       </c>
-      <c r="E55" s="78">
+      <c r="E55" s="82">
         <f t="shared" si="40"/>
         <v>161.5</v>
       </c>
-      <c r="F55" s="78">
+      <c r="F55" s="82">
         <f t="shared" si="40"/>
         <v>47</v>
       </c>
-      <c r="G55" s="79"/>
-      <c r="H55" s="78">
+      <c r="G55" s="83"/>
+      <c r="H55" s="82">
         <f t="shared" ref="H55:K55" si="41">sum(H13:H54)</f>
         <v>9</v>
       </c>
-      <c r="I55" s="78">
+      <c r="I55" s="82">
         <f t="shared" si="41"/>
         <v>28</v>
       </c>
-      <c r="J55" s="78">
+      <c r="J55" s="82">
         <f t="shared" si="41"/>
         <v>63</v>
       </c>
-      <c r="K55" s="80">
+      <c r="K55" s="84">
         <f t="shared" si="41"/>
         <v>45.5</v>
       </c>
-      <c r="L55" s="79"/>
-      <c r="M55" s="77">
+      <c r="L55" s="83"/>
+      <c r="M55" s="81">
         <f t="shared" ref="M55:P55" si="42">sum(M13:M54)</f>
         <v>9</v>
       </c>
-      <c r="N55" s="78">
+      <c r="N55" s="82">
         <f t="shared" si="42"/>
-        <v>26.25</v>
-      </c>
-      <c r="O55" s="78">
+        <v>28.5</v>
+      </c>
+      <c r="O55" s="82">
         <f t="shared" si="42"/>
         <v>57</v>
       </c>
-      <c r="P55" s="80">
+      <c r="P55" s="84">
         <f t="shared" si="42"/>
-        <v>49</v>
-      </c>
-      <c r="Q55" s="79"/>
-      <c r="R55" s="77">
+        <v>51</v>
+      </c>
+      <c r="Q55" s="83"/>
+      <c r="R55" s="81">
         <f t="shared" ref="R55:U55" si="43">sum(R13:R54)</f>
         <v>0</v>
       </c>
-      <c r="S55" s="78">
+      <c r="S55" s="82">
         <f t="shared" si="43"/>
         <v>1</v>
       </c>
-      <c r="T55" s="78">
+      <c r="T55" s="82">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="U55" s="80">
+      <c r="U55" s="84">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="V55" s="79"/>
-      <c r="W55" s="77">
+      <c r="V55" s="83"/>
+      <c r="W55" s="81">
         <f t="shared" ref="W55:Z55" si="44">sum(W13:W54)</f>
         <v>9</v>
       </c>
-      <c r="X55" s="78">
+      <c r="X55" s="82">
         <f t="shared" si="44"/>
         <v>27.5</v>
       </c>
-      <c r="Y55" s="78">
+      <c r="Y55" s="82">
         <f t="shared" si="44"/>
         <v>36</v>
       </c>
-      <c r="Z55" s="80">
+      <c r="Z55" s="84">
         <f t="shared" si="44"/>
         <v>59</v>
       </c>
-      <c r="AA55" s="79"/>
-      <c r="AB55" s="77">
+      <c r="AA55" s="83"/>
+      <c r="AB55" s="81">
         <f t="shared" ref="AB55:AE55" si="45">sum(AB13:AB54)</f>
         <v>0</v>
       </c>
-      <c r="AC55" s="78">
+      <c r="AC55" s="82">
         <f t="shared" si="45"/>
         <v>1</v>
       </c>
-      <c r="AD55" s="78">
+      <c r="AD55" s="82">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AE55" s="80">
+      <c r="AE55" s="84">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AF55" s="79"/>
-      <c r="AG55" s="77">
+      <c r="AF55" s="83"/>
+      <c r="AG55" s="81">
         <f t="shared" ref="AG55:AJ55" si="46">sum(AG13:AG54)</f>
         <v>9</v>
       </c>
-      <c r="AH55" s="78">
+      <c r="AH55" s="82">
         <f t="shared" si="46"/>
-        <v>7</v>
-      </c>
-      <c r="AI55" s="78">
+        <v>10</v>
+      </c>
+      <c r="AI55" s="82">
         <f t="shared" si="46"/>
-        <v>8</v>
-      </c>
-      <c r="AJ55" s="80">
+        <v>22</v>
+      </c>
+      <c r="AJ55" s="84">
         <f t="shared" si="46"/>
-        <v>4</v>
-      </c>
-      <c r="AK55" s="79"/>
-      <c r="AL55" s="77">
+        <v>15</v>
+      </c>
+      <c r="AK55" s="83"/>
+      <c r="AL55" s="81">
         <f t="shared" ref="AL55:AO55" si="47">sum(AL13:AL54)</f>
         <v>0</v>
       </c>
-      <c r="AM55" s="78">
+      <c r="AM55" s="82">
         <f t="shared" si="47"/>
         <v>1</v>
       </c>
-      <c r="AN55" s="78">
+      <c r="AN55" s="82">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AO55" s="80">
+      <c r="AO55" s="84">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AP55" s="79"/>
-      <c r="AQ55" s="77">
+      <c r="AP55" s="83"/>
+      <c r="AQ55" s="81">
         <f t="shared" ref="AQ55:AT55" si="48">sum(AQ13:AQ54)</f>
         <v>45</v>
       </c>
-      <c r="AR55" s="78">
+      <c r="AR55" s="82">
         <f t="shared" si="48"/>
-        <v>115.75</v>
-      </c>
-      <c r="AS55" s="78">
+        <v>121</v>
+      </c>
+      <c r="AS55" s="82">
         <f t="shared" si="48"/>
-        <v>325.5</v>
-      </c>
-      <c r="AT55" s="80">
+        <v>339.5</v>
+      </c>
+      <c r="AT55" s="84">
         <f t="shared" si="48"/>
-        <v>204.5</v>
-      </c>
-      <c r="AU55" s="75"/>
+        <v>217.5</v>
+      </c>
+      <c r="AU55" s="79"/>
     </row>
     <row r="56" ht="21.0" customHeight="1">
-      <c r="A56" s="81"/>
-      <c r="B56" s="82" t="s">
-        <v>138</v>
-      </c>
-      <c r="C56" s="83">
+      <c r="A56" s="85"/>
+      <c r="B56" s="86" t="s">
+        <v>147</v>
+      </c>
+      <c r="C56" s="87">
         <f>sum(C55:F55)</f>
         <v>241.5</v>
       </c>
-      <c r="D56" s="84"/>
-      <c r="E56" s="84"/>
-      <c r="F56" s="85"/>
-      <c r="G56" s="86"/>
-      <c r="H56" s="83">
+      <c r="D56" s="88"/>
+      <c r="E56" s="88"/>
+      <c r="F56" s="89"/>
+      <c r="G56" s="90"/>
+      <c r="H56" s="87">
         <f>sum(H55:K55)</f>
         <v>145.5</v>
       </c>
-      <c r="I56" s="84"/>
-      <c r="J56" s="84"/>
-      <c r="K56" s="85"/>
-      <c r="L56" s="86"/>
-      <c r="M56" s="83">
+      <c r="I56" s="88"/>
+      <c r="J56" s="88"/>
+      <c r="K56" s="89"/>
+      <c r="L56" s="90"/>
+      <c r="M56" s="87">
         <f>sum(M55:P55)</f>
-        <v>141.25</v>
-      </c>
-      <c r="N56" s="84"/>
-      <c r="O56" s="84"/>
-      <c r="P56" s="85"/>
-      <c r="Q56" s="86"/>
-      <c r="R56" s="83">
+        <v>145.5</v>
+      </c>
+      <c r="N56" s="88"/>
+      <c r="O56" s="88"/>
+      <c r="P56" s="89"/>
+      <c r="Q56" s="90"/>
+      <c r="R56" s="87">
         <f>sum(R55:U55)</f>
         <v>1</v>
       </c>
-      <c r="S56" s="84"/>
-      <c r="T56" s="84"/>
-      <c r="U56" s="85"/>
-      <c r="V56" s="86"/>
-      <c r="W56" s="83">
+      <c r="S56" s="88"/>
+      <c r="T56" s="88"/>
+      <c r="U56" s="89"/>
+      <c r="V56" s="90"/>
+      <c r="W56" s="87">
         <f>sum(W55:Z55)</f>
         <v>131.5</v>
       </c>
-      <c r="X56" s="84"/>
-      <c r="Y56" s="84"/>
-      <c r="Z56" s="85"/>
-      <c r="AA56" s="86"/>
-      <c r="AB56" s="83">
+      <c r="X56" s="88"/>
+      <c r="Y56" s="88"/>
+      <c r="Z56" s="89"/>
+      <c r="AA56" s="90"/>
+      <c r="AB56" s="87">
         <f>sum(AB55:AE55)</f>
         <v>1</v>
       </c>
-      <c r="AC56" s="84"/>
-      <c r="AD56" s="84"/>
-      <c r="AE56" s="85"/>
-      <c r="AF56" s="86"/>
-      <c r="AG56" s="83">
+      <c r="AC56" s="88"/>
+      <c r="AD56" s="88"/>
+      <c r="AE56" s="89"/>
+      <c r="AF56" s="90"/>
+      <c r="AG56" s="87">
         <f>sum(AG55:AJ55)</f>
-        <v>28</v>
-      </c>
-      <c r="AH56" s="84"/>
-      <c r="AI56" s="84"/>
-      <c r="AJ56" s="85"/>
-      <c r="AK56" s="86"/>
-      <c r="AL56" s="83">
+        <v>56</v>
+      </c>
+      <c r="AH56" s="88"/>
+      <c r="AI56" s="88"/>
+      <c r="AJ56" s="89"/>
+      <c r="AK56" s="90"/>
+      <c r="AL56" s="87">
         <f>sum(AL55:AO55)</f>
         <v>1</v>
       </c>
-      <c r="AM56" s="84"/>
-      <c r="AN56" s="84"/>
-      <c r="AO56" s="85"/>
-      <c r="AP56" s="86"/>
-      <c r="AQ56" s="87">
+      <c r="AM56" s="88"/>
+      <c r="AN56" s="88"/>
+      <c r="AO56" s="89"/>
+      <c r="AP56" s="90"/>
+      <c r="AQ56" s="91">
         <f>sum(AQ55:AT55)</f>
-        <v>690.75</v>
-      </c>
-      <c r="AR56" s="84"/>
-      <c r="AS56" s="84"/>
-      <c r="AT56" s="85"/>
-      <c r="AU56" s="75"/>
+        <v>723</v>
+      </c>
+      <c r="AR56" s="88"/>
+      <c r="AS56" s="88"/>
+      <c r="AT56" s="89"/>
+      <c r="AU56" s="79"/>
     </row>
     <row r="57" ht="21.0" customHeight="1">
-      <c r="A57" s="75"/>
-      <c r="B57" s="88"/>
-      <c r="C57" s="75"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="75"/>
-      <c r="F57" s="75"/>
-      <c r="G57" s="89"/>
-      <c r="H57" s="75"/>
-      <c r="I57" s="75"/>
-      <c r="J57" s="75"/>
-      <c r="K57" s="75"/>
-      <c r="L57" s="89"/>
-      <c r="M57" s="75"/>
-      <c r="P57" s="90"/>
-      <c r="Q57" s="89"/>
-      <c r="R57" s="90"/>
-      <c r="S57" s="90"/>
-      <c r="T57" s="90"/>
-      <c r="U57" s="90"/>
-      <c r="V57" s="89"/>
-      <c r="W57" s="90"/>
-      <c r="X57" s="90"/>
-      <c r="Y57" s="90"/>
-      <c r="Z57" s="90"/>
-      <c r="AA57" s="89"/>
-      <c r="AB57" s="90"/>
-      <c r="AC57" s="90"/>
-      <c r="AD57" s="90"/>
-      <c r="AE57" s="90"/>
-      <c r="AF57" s="89"/>
-      <c r="AG57" s="90"/>
-      <c r="AH57" s="90"/>
-      <c r="AI57" s="90"/>
-      <c r="AJ57" s="90"/>
-      <c r="AK57" s="89"/>
-      <c r="AL57" s="90"/>
-      <c r="AM57" s="90"/>
-      <c r="AN57" s="90"/>
-      <c r="AP57" s="89"/>
-      <c r="AQ57" s="91"/>
-      <c r="AR57" s="91"/>
-      <c r="AS57" s="91"/>
-      <c r="AT57" s="91"/>
-      <c r="AU57" s="75"/>
+      <c r="A57" s="79"/>
+      <c r="B57" s="92"/>
+      <c r="C57" s="79"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="79"/>
+      <c r="G57" s="93"/>
+      <c r="H57" s="79"/>
+      <c r="I57" s="79"/>
+      <c r="J57" s="79"/>
+      <c r="K57" s="79"/>
+      <c r="L57" s="93"/>
+      <c r="M57" s="79"/>
+      <c r="P57" s="94"/>
+      <c r="Q57" s="93"/>
+      <c r="R57" s="94"/>
+      <c r="S57" s="94"/>
+      <c r="T57" s="94"/>
+      <c r="U57" s="94"/>
+      <c r="V57" s="93"/>
+      <c r="W57" s="94"/>
+      <c r="X57" s="94"/>
+      <c r="Y57" s="94"/>
+      <c r="Z57" s="94"/>
+      <c r="AA57" s="93"/>
+      <c r="AB57" s="94"/>
+      <c r="AC57" s="94"/>
+      <c r="AD57" s="94"/>
+      <c r="AE57" s="94"/>
+      <c r="AF57" s="93"/>
+      <c r="AG57" s="94"/>
+      <c r="AH57" s="94"/>
+      <c r="AI57" s="94"/>
+      <c r="AJ57" s="94"/>
+      <c r="AK57" s="93"/>
+      <c r="AL57" s="94"/>
+      <c r="AM57" s="94"/>
+      <c r="AN57" s="94"/>
+      <c r="AP57" s="93"/>
+      <c r="AQ57" s="95"/>
+      <c r="AR57" s="95"/>
+      <c r="AS57" s="95"/>
+      <c r="AT57" s="95"/>
+      <c r="AU57" s="79"/>
     </row>
     <row r="58" ht="30.0" customHeight="1">
-      <c r="A58" s="92"/>
-      <c r="B58" s="93"/>
-      <c r="C58" s="92"/>
-      <c r="D58" s="92"/>
-      <c r="E58" s="92"/>
-      <c r="F58" s="92"/>
-      <c r="G58" s="94"/>
-      <c r="H58" s="92"/>
-      <c r="I58" s="92"/>
-      <c r="J58" s="92"/>
-      <c r="K58" s="92"/>
-      <c r="L58" s="94"/>
-      <c r="M58" s="92"/>
-      <c r="N58" s="95"/>
-      <c r="O58" s="95"/>
-      <c r="P58" s="95"/>
-      <c r="Q58" s="94"/>
-      <c r="R58" s="95"/>
-      <c r="S58" s="95"/>
-      <c r="T58" s="95"/>
-      <c r="U58" s="95"/>
-      <c r="V58" s="94"/>
-      <c r="W58" s="95"/>
-      <c r="X58" s="95"/>
-      <c r="Y58" s="95"/>
-      <c r="Z58" s="95"/>
-      <c r="AA58" s="94"/>
-      <c r="AB58" s="95"/>
-      <c r="AC58" s="95"/>
-      <c r="AD58" s="95"/>
-      <c r="AE58" s="95"/>
-      <c r="AF58" s="94"/>
-      <c r="AG58" s="95"/>
-      <c r="AH58" s="95"/>
-      <c r="AI58" s="95"/>
-      <c r="AJ58" s="95"/>
-      <c r="AK58" s="94"/>
-      <c r="AL58" s="95"/>
-      <c r="AM58" s="95"/>
-      <c r="AN58" s="95"/>
-      <c r="AO58" s="95"/>
-      <c r="AP58" s="94"/>
-      <c r="AQ58" s="95"/>
-      <c r="AR58" s="95"/>
-      <c r="AS58" s="95"/>
-      <c r="AT58" s="95"/>
-      <c r="AU58" s="92"/>
+      <c r="A58" s="96"/>
+      <c r="B58" s="97"/>
+      <c r="C58" s="96"/>
+      <c r="D58" s="96"/>
+      <c r="E58" s="96"/>
+      <c r="F58" s="96"/>
+      <c r="G58" s="98"/>
+      <c r="H58" s="96"/>
+      <c r="I58" s="96"/>
+      <c r="J58" s="96"/>
+      <c r="K58" s="96"/>
+      <c r="L58" s="98"/>
+      <c r="M58" s="96"/>
+      <c r="N58" s="99"/>
+      <c r="O58" s="99"/>
+      <c r="P58" s="99"/>
+      <c r="Q58" s="98"/>
+      <c r="R58" s="99"/>
+      <c r="S58" s="99"/>
+      <c r="T58" s="99"/>
+      <c r="U58" s="99"/>
+      <c r="V58" s="98"/>
+      <c r="W58" s="99"/>
+      <c r="X58" s="99"/>
+      <c r="Y58" s="99"/>
+      <c r="Z58" s="99"/>
+      <c r="AA58" s="98"/>
+      <c r="AB58" s="99"/>
+      <c r="AC58" s="99"/>
+      <c r="AD58" s="99"/>
+      <c r="AE58" s="99"/>
+      <c r="AF58" s="98"/>
+      <c r="AG58" s="99"/>
+      <c r="AH58" s="99"/>
+      <c r="AI58" s="99"/>
+      <c r="AJ58" s="99"/>
+      <c r="AK58" s="98"/>
+      <c r="AL58" s="99"/>
+      <c r="AM58" s="99"/>
+      <c r="AN58" s="99"/>
+      <c r="AO58" s="99"/>
+      <c r="AP58" s="98"/>
+      <c r="AQ58" s="99"/>
+      <c r="AR58" s="99"/>
+      <c r="AS58" s="99"/>
+      <c r="AT58" s="99"/>
+      <c r="AU58" s="96"/>
     </row>
     <row r="59" ht="19.5" customHeight="1">
       <c r="A59" s="62"/>
@@ -6733,42 +6924,42 @@
       <c r="D59" s="62"/>
       <c r="E59" s="62"/>
       <c r="F59" s="62"/>
-      <c r="G59" s="96"/>
+      <c r="G59" s="100"/>
       <c r="H59" s="62"/>
       <c r="I59" s="62"/>
       <c r="J59" s="62"/>
       <c r="K59" s="62"/>
-      <c r="L59" s="96"/>
+      <c r="L59" s="100"/>
       <c r="M59" s="62"/>
       <c r="N59" s="62"/>
       <c r="O59" s="62"/>
       <c r="P59" s="62"/>
-      <c r="Q59" s="96"/>
+      <c r="Q59" s="100"/>
       <c r="R59" s="62"/>
       <c r="S59" s="62"/>
       <c r="T59" s="62"/>
       <c r="U59" s="62"/>
-      <c r="V59" s="96"/>
+      <c r="V59" s="100"/>
       <c r="W59" s="62"/>
       <c r="X59" s="62"/>
       <c r="Y59" s="62"/>
       <c r="Z59" s="62"/>
-      <c r="AA59" s="96"/>
+      <c r="AA59" s="100"/>
       <c r="AB59" s="62"/>
       <c r="AC59" s="62"/>
       <c r="AD59" s="62"/>
       <c r="AE59" s="62"/>
-      <c r="AF59" s="96"/>
+      <c r="AF59" s="100"/>
       <c r="AG59" s="62"/>
       <c r="AH59" s="62"/>
       <c r="AI59" s="62"/>
       <c r="AJ59" s="62"/>
-      <c r="AK59" s="96"/>
+      <c r="AK59" s="100"/>
       <c r="AL59" s="62"/>
       <c r="AM59" s="62"/>
       <c r="AN59" s="62"/>
       <c r="AO59" s="62"/>
-      <c r="AP59" s="96"/>
+      <c r="AP59" s="100"/>
       <c r="AQ59" s="62"/>
       <c r="AR59" s="62"/>
       <c r="AS59" s="62"/>
@@ -6921,7 +7112,7 @@
     <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="30"/>
       <c r="B8" s="31" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="33"/>
@@ -6963,31 +7154,31 @@
     <row r="11" ht="19.5" customHeight="1">
       <c r="A11" s="40"/>
       <c r="B11" s="41"/>
-      <c r="C11" s="97" t="s">
+      <c r="C11" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="98" t="s">
+      <c r="D11" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="98" t="s">
+      <c r="E11" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="97" t="s">
+      <c r="F11" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="97" t="s">
+      <c r="G11" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="97" t="s">
+      <c r="H11" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="97" t="s">
+      <c r="I11" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="97" t="s">
+      <c r="J11" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="99" t="s">
+      <c r="K11" s="103" t="s">
         <v>10</v>
       </c>
       <c r="L11" s="40"/>
@@ -6997,7 +7188,7 @@
       <c r="B12" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="100"/>
+      <c r="C12" s="104"/>
       <c r="D12" s="49"/>
       <c r="E12" s="49"/>
       <c r="F12" s="49"/>
@@ -7005,47 +7196,47 @@
       <c r="H12" s="49"/>
       <c r="I12" s="49"/>
       <c r="J12" s="49"/>
-      <c r="K12" s="101"/>
+      <c r="K12" s="105"/>
       <c r="L12" s="47"/>
     </row>
     <row r="13" ht="21.0" customHeight="1">
       <c r="A13" s="24"/>
-      <c r="B13" s="102" t="s">
+      <c r="B13" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="103">
+      <c r="C13" s="107">
         <f>SUM('Time Sheet'!C13:F13)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="D13" s="103">
+      <c r="D13" s="107">
         <f>SUM('Time Sheet'!H13:K13)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="E13" s="103">
+      <c r="E13" s="107">
         <f>SUM('Time Sheet'!M13:P13)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="F13" s="103">
+      <c r="F13" s="107">
         <f>SUM('Time Sheet'!R13:U13)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="G13" s="103">
+      <c r="G13" s="107">
         <f>SUM('Time Sheet'!W13:Z13)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="H13" s="103">
+      <c r="H13" s="107">
         <f>SUM('Time Sheet'!AB13:AE13)*$D$58</f>
         <v>0</v>
       </c>
-      <c r="I13" s="103">
+      <c r="I13" s="107">
         <f>SUM('Time Sheet'!AG13:AJ13)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="J13" s="103">
+      <c r="J13" s="107">
         <f>SUM('Time Sheet'!AL13:AO13)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="K13" s="104">
+      <c r="K13" s="108">
         <f t="shared" ref="K13:K27" si="1">C13+D13+E13+F13+G13+H13+I13+J13</f>
         <v>0</v>
       </c>
@@ -7056,39 +7247,39 @@
       <c r="B14" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="105">
+      <c r="C14" s="109">
         <f>SUM('Time Sheet'!C14:F14)*$D$57</f>
         <v>12.5</v>
       </c>
-      <c r="D14" s="105">
+      <c r="D14" s="109">
         <f>SUM('Time Sheet'!H14:K14)*$D$57</f>
         <v>12.5</v>
       </c>
-      <c r="E14" s="105">
+      <c r="E14" s="109">
         <f>SUM('Time Sheet'!M14:P14)*$D$57</f>
         <v>12.5</v>
       </c>
-      <c r="F14" s="105">
+      <c r="F14" s="109">
         <f>SUM('Time Sheet'!R14:U14)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="G14" s="105">
+      <c r="G14" s="109">
         <f>SUM('Time Sheet'!W14:Z14)*$D$57</f>
         <v>12.5</v>
       </c>
-      <c r="H14" s="105">
+      <c r="H14" s="109">
         <f>SUM('Time Sheet'!AB14:AE14)*$D$58</f>
         <v>0</v>
       </c>
-      <c r="I14" s="105">
+      <c r="I14" s="109">
         <f>SUM('Time Sheet'!AG14:AJ14)*$D$57</f>
         <v>12.5</v>
       </c>
-      <c r="J14" s="105">
+      <c r="J14" s="109">
         <f>SUM('Time Sheet'!AL14:AO14)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="K14" s="104">
+      <c r="K14" s="108">
         <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
@@ -7099,39 +7290,39 @@
       <c r="B15" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="105">
+      <c r="C15" s="109">
         <f>SUM('Time Sheet'!C15:F15)*$D$57</f>
         <v>25</v>
       </c>
-      <c r="D15" s="105">
+      <c r="D15" s="109">
         <f>SUM('Time Sheet'!H15:K15)*$D$57</f>
         <v>12.5</v>
       </c>
-      <c r="E15" s="105">
+      <c r="E15" s="109">
         <f>SUM('Time Sheet'!M15:P15)*$D$57</f>
         <v>25</v>
       </c>
-      <c r="F15" s="105">
+      <c r="F15" s="109">
         <f>SUM('Time Sheet'!R15:U15)*$D$57</f>
         <v>12.5</v>
       </c>
-      <c r="G15" s="105">
+      <c r="G15" s="109">
         <f>SUM('Time Sheet'!W15:Z15)*$D$57</f>
         <v>25</v>
       </c>
-      <c r="H15" s="105">
+      <c r="H15" s="109">
         <f>SUM('Time Sheet'!AB15:AE15)*$D$58</f>
         <v>0</v>
       </c>
-      <c r="I15" s="105">
+      <c r="I15" s="109">
         <f>SUM('Time Sheet'!AG15:AJ15)*$D$57</f>
         <v>12.5</v>
       </c>
-      <c r="J15" s="105">
+      <c r="J15" s="109">
         <f>SUM('Time Sheet'!AL15:AO15)*$D$57</f>
         <v>12.5</v>
       </c>
-      <c r="K15" s="104">
+      <c r="K15" s="108">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
@@ -7142,39 +7333,39 @@
       <c r="B16" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="105">
+      <c r="C16" s="109">
         <f>SUM('Time Sheet'!C16:F16)*$D$57</f>
         <v>37.5</v>
       </c>
-      <c r="D16" s="105">
+      <c r="D16" s="109">
         <f>SUM('Time Sheet'!H16:K16)*$D$57</f>
         <v>25</v>
       </c>
-      <c r="E16" s="105">
+      <c r="E16" s="109">
         <f>SUM('Time Sheet'!M16:P16)*$D$57</f>
         <v>37.5</v>
       </c>
-      <c r="F16" s="105">
+      <c r="F16" s="109">
         <f>SUM('Time Sheet'!R16:U16)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="G16" s="105">
+      <c r="G16" s="109">
         <f>SUM('Time Sheet'!W16:Z16)*$D$57</f>
         <v>37.5</v>
       </c>
-      <c r="H16" s="105">
+      <c r="H16" s="109">
         <f>SUM('Time Sheet'!AB16:AE16)*$D$58</f>
         <v>0</v>
       </c>
-      <c r="I16" s="105">
+      <c r="I16" s="109">
         <f>SUM('Time Sheet'!AG16:AJ16)*$D$57</f>
         <v>12.5</v>
       </c>
-      <c r="J16" s="105">
+      <c r="J16" s="109">
         <f>SUM('Time Sheet'!AL16:AO16)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="K16" s="104">
+      <c r="K16" s="108">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
@@ -7185,39 +7376,39 @@
       <c r="B17" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="105">
+      <c r="C17" s="109">
         <f>SUM('Time Sheet'!C17:F17)*$D$57</f>
         <v>12.5</v>
       </c>
-      <c r="D17" s="105">
+      <c r="D17" s="109">
         <f>SUM('Time Sheet'!H17:K17)*$D$57</f>
         <v>12.5</v>
       </c>
-      <c r="E17" s="105">
+      <c r="E17" s="109">
         <f>SUM('Time Sheet'!M17:P17)*$D$57</f>
         <v>12.5</v>
       </c>
-      <c r="F17" s="105">
+      <c r="F17" s="109">
         <f>SUM('Time Sheet'!R17:U17)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="G17" s="105">
+      <c r="G17" s="109">
         <f>SUM('Time Sheet'!W17:Z17)*$D$57</f>
         <v>12.5</v>
       </c>
-      <c r="H17" s="105">
+      <c r="H17" s="109">
         <f>SUM('Time Sheet'!AB17:AE17)*$D$58</f>
         <v>0</v>
       </c>
-      <c r="I17" s="105">
+      <c r="I17" s="109">
         <f>SUM('Time Sheet'!AG17:AJ17)*$D$57</f>
         <v>12.5</v>
       </c>
-      <c r="J17" s="105">
+      <c r="J17" s="109">
         <f>SUM('Time Sheet'!AL17:AO17)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="K17" s="104">
+      <c r="K17" s="108">
         <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
@@ -7228,39 +7419,39 @@
       <c r="B18" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="105">
+      <c r="C18" s="109">
         <f>SUM('Time Sheet'!C18:F18)*$D$57</f>
         <v>25</v>
       </c>
-      <c r="D18" s="105">
+      <c r="D18" s="109">
         <f>SUM('Time Sheet'!H18:K18)*$D$57</f>
         <v>12.5</v>
       </c>
-      <c r="E18" s="105">
+      <c r="E18" s="109">
         <f>SUM('Time Sheet'!M18:P18)*$D$57</f>
         <v>12.5</v>
       </c>
-      <c r="F18" s="105">
+      <c r="F18" s="109">
         <f>SUM('Time Sheet'!R18:U18)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="G18" s="105">
+      <c r="G18" s="109">
         <f>SUM('Time Sheet'!W18:Z18)*$D$57</f>
         <v>12.5</v>
       </c>
-      <c r="H18" s="105">
+      <c r="H18" s="109">
         <f>SUM('Time Sheet'!AB18:AE18)*$D$58</f>
         <v>0</v>
       </c>
-      <c r="I18" s="105">
+      <c r="I18" s="109">
         <f>SUM('Time Sheet'!AG18:AJ18)*$D$57</f>
         <v>12.5</v>
       </c>
-      <c r="J18" s="105">
+      <c r="J18" s="109">
         <f>SUM('Time Sheet'!AL18:AO18)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="K18" s="104">
+      <c r="K18" s="108">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
@@ -7271,39 +7462,39 @@
       <c r="B19" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="105">
+      <c r="C19" s="109">
         <f>SUM('Time Sheet'!C19:F19)*$D$57</f>
         <v>12.5</v>
       </c>
-      <c r="D19" s="105">
+      <c r="D19" s="109">
         <f>SUM('Time Sheet'!H19:K19)*$D$57</f>
         <v>12.5</v>
       </c>
-      <c r="E19" s="105">
+      <c r="E19" s="109">
         <f>SUM('Time Sheet'!M19:P19)*$D$57</f>
         <v>37.5</v>
       </c>
-      <c r="F19" s="105">
+      <c r="F19" s="109">
         <f>SUM('Time Sheet'!R19:U19)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="G19" s="105">
+      <c r="G19" s="109">
         <f>SUM('Time Sheet'!W19:Z19)*$D$57</f>
         <v>12.5</v>
       </c>
-      <c r="H19" s="105">
+      <c r="H19" s="109">
         <f>SUM('Time Sheet'!AB19:AE19)*$D$58</f>
         <v>0</v>
       </c>
-      <c r="I19" s="105">
+      <c r="I19" s="109">
         <f>SUM('Time Sheet'!AG19:AJ19)*$D$57</f>
         <v>12.5</v>
       </c>
-      <c r="J19" s="105">
+      <c r="J19" s="109">
         <f>SUM('Time Sheet'!AL19:AO19)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="K19" s="104">
+      <c r="K19" s="108">
         <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
@@ -7314,39 +7505,39 @@
       <c r="B20" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="105">
+      <c r="C20" s="109">
         <f>SUM('Time Sheet'!C20:F20)*$D$57</f>
         <v>12.5</v>
       </c>
-      <c r="D20" s="105">
+      <c r="D20" s="109">
         <f>SUM('Time Sheet'!H20:K20)*$D$57</f>
         <v>12.5</v>
       </c>
-      <c r="E20" s="105">
+      <c r="E20" s="109">
         <f>SUM('Time Sheet'!M20:P20)*$D$57</f>
         <v>12.5</v>
       </c>
-      <c r="F20" s="105">
+      <c r="F20" s="109">
         <f>SUM('Time Sheet'!R20:U20)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="G20" s="105">
+      <c r="G20" s="109">
         <f>SUM('Time Sheet'!W20:Z20)*$D$57</f>
         <v>12.5</v>
       </c>
-      <c r="H20" s="105">
+      <c r="H20" s="109">
         <f>SUM('Time Sheet'!AB20:AE20)*$D$58</f>
         <v>0</v>
       </c>
-      <c r="I20" s="105">
+      <c r="I20" s="109">
         <f>SUM('Time Sheet'!AG20:AJ20)*$D$57</f>
         <v>12.5</v>
       </c>
-      <c r="J20" s="105">
+      <c r="J20" s="109">
         <f>SUM('Time Sheet'!AL20:AO20)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="K20" s="104">
+      <c r="K20" s="108">
         <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
@@ -7357,39 +7548,39 @@
       <c r="B21" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="105">
+      <c r="C21" s="109">
         <f>SUM('Time Sheet'!C21:F21)*$D$57</f>
         <v>25</v>
       </c>
-      <c r="D21" s="105">
+      <c r="D21" s="109">
         <f>SUM('Time Sheet'!H21:K21)*$D$57</f>
         <v>37.5</v>
       </c>
-      <c r="E21" s="105">
+      <c r="E21" s="109">
         <f>SUM('Time Sheet'!M21:P21)*$D$57</f>
         <v>25</v>
       </c>
-      <c r="F21" s="105">
+      <c r="F21" s="109">
         <f>SUM('Time Sheet'!R21:U21)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="G21" s="105">
+      <c r="G21" s="109">
         <f>SUM('Time Sheet'!W21:Z21)*$D$57</f>
         <v>25</v>
       </c>
-      <c r="H21" s="105">
+      <c r="H21" s="109">
         <f>SUM('Time Sheet'!AB21:AE21)*$D$58</f>
         <v>0</v>
       </c>
-      <c r="I21" s="105">
+      <c r="I21" s="109">
         <f>SUM('Time Sheet'!AG21:AJ21)*$D$57</f>
         <v>12.5</v>
       </c>
-      <c r="J21" s="105">
+      <c r="J21" s="109">
         <f>SUM('Time Sheet'!AL21:AO21)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="K21" s="104">
+      <c r="K21" s="108">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
@@ -7400,39 +7591,39 @@
       <c r="B22" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="105">
+      <c r="C22" s="109">
         <f>SUM('Time Sheet'!C22:F22)*$D$57</f>
         <v>37.5</v>
       </c>
-      <c r="D22" s="105">
+      <c r="D22" s="109">
         <f>SUM('Time Sheet'!H22:K22)*$D$57</f>
         <v>25</v>
       </c>
-      <c r="E22" s="105">
+      <c r="E22" s="109">
         <f>SUM('Time Sheet'!M22:P22)*$D$57</f>
         <v>62.5</v>
       </c>
-      <c r="F22" s="105">
+      <c r="F22" s="109">
         <f>SUM('Time Sheet'!R22:U22)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="G22" s="105">
+      <c r="G22" s="109">
         <f>SUM('Time Sheet'!W22:Z22)*$D$57</f>
         <v>37.5</v>
       </c>
-      <c r="H22" s="105">
+      <c r="H22" s="109">
         <f>SUM('Time Sheet'!AB22:AE22)*$D$58</f>
         <v>0</v>
       </c>
-      <c r="I22" s="105">
+      <c r="I22" s="109">
         <f>SUM('Time Sheet'!AG22:AJ22)*$D$57</f>
         <v>12.5</v>
       </c>
-      <c r="J22" s="105">
+      <c r="J22" s="109">
         <f>SUM('Time Sheet'!AL22:AO22)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="K22" s="104">
+      <c r="K22" s="108">
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
@@ -7443,39 +7634,39 @@
       <c r="B23" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="105">
+      <c r="C23" s="109">
         <f>SUM('Time Sheet'!C23:F23)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="D23" s="105">
+      <c r="D23" s="109">
         <f>SUM('Time Sheet'!H23:K23)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="E23" s="105">
+      <c r="E23" s="109">
         <f>SUM('Time Sheet'!M23:P23)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="F23" s="105">
+      <c r="F23" s="109">
         <f>SUM('Time Sheet'!R23:U23)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="G23" s="105">
+      <c r="G23" s="109">
         <f>SUM('Time Sheet'!W23:Z23)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="H23" s="105">
+      <c r="H23" s="109">
         <f>SUM('Time Sheet'!AB23:AE23)*$D$58</f>
         <v>0</v>
       </c>
-      <c r="I23" s="105">
+      <c r="I23" s="109">
         <f>SUM('Time Sheet'!AG23:AJ23)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="J23" s="105">
+      <c r="J23" s="109">
         <f>SUM('Time Sheet'!AL23:AO23)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="K23" s="104">
+      <c r="K23" s="108">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7486,39 +7677,39 @@
       <c r="B24" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="105">
+      <c r="C24" s="109">
         <f>SUM('Time Sheet'!C24:F24)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="D24" s="105">
+      <c r="D24" s="109">
         <f>SUM('Time Sheet'!H24:K24)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="E24" s="105">
+      <c r="E24" s="109">
         <f>SUM('Time Sheet'!M24:P24)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="F24" s="105">
+      <c r="F24" s="109">
         <f>SUM('Time Sheet'!R24:U24)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="G24" s="105">
+      <c r="G24" s="109">
         <f>SUM('Time Sheet'!W24:Z24)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="H24" s="105">
+      <c r="H24" s="109">
         <f>SUM('Time Sheet'!AB24:AE24)*$D$58</f>
         <v>0</v>
       </c>
-      <c r="I24" s="105">
+      <c r="I24" s="109">
         <f>SUM('Time Sheet'!AG24:AJ24)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="J24" s="105">
+      <c r="J24" s="109">
         <f>SUM('Time Sheet'!AL24:AO24)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="K24" s="104">
+      <c r="K24" s="108">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7529,39 +7720,39 @@
       <c r="B25" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="105">
+      <c r="C25" s="109">
         <f>SUM('Time Sheet'!C25:F25)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="D25" s="105">
+      <c r="D25" s="109">
         <f>SUM('Time Sheet'!H25:K25)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="E25" s="105">
+      <c r="E25" s="109">
         <f>SUM('Time Sheet'!M25:P25)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="F25" s="105">
+      <c r="F25" s="109">
         <f>SUM('Time Sheet'!R25:U25)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="G25" s="105">
+      <c r="G25" s="109">
         <f>SUM('Time Sheet'!W25:Z25)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="H25" s="105">
+      <c r="H25" s="109">
         <f>SUM('Time Sheet'!AB25:AE25)*$D$58</f>
         <v>0</v>
       </c>
-      <c r="I25" s="105">
+      <c r="I25" s="109">
         <f>SUM('Time Sheet'!AG25:AJ25)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="J25" s="105">
+      <c r="J25" s="109">
         <f>SUM('Time Sheet'!AL25:AO25)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="K25" s="104">
+      <c r="K25" s="108">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7572,39 +7763,39 @@
       <c r="B26" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="105">
+      <c r="C26" s="109">
         <f>SUM('Time Sheet'!C26:F26)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="D26" s="105">
+      <c r="D26" s="109">
         <f>SUM('Time Sheet'!H26:K26)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="E26" s="105">
+      <c r="E26" s="109">
         <f>SUM('Time Sheet'!M26:P26)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="F26" s="105">
+      <c r="F26" s="109">
         <f>SUM('Time Sheet'!R26:U26)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="G26" s="105">
+      <c r="G26" s="109">
         <f>SUM('Time Sheet'!W26:Z26)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="H26" s="105">
+      <c r="H26" s="109">
         <f>SUM('Time Sheet'!AB26:AE26)*$D$58</f>
         <v>0</v>
       </c>
-      <c r="I26" s="105">
+      <c r="I26" s="109">
         <f>SUM('Time Sheet'!AG26:AJ26)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="J26" s="105">
+      <c r="J26" s="109">
         <f>SUM('Time Sheet'!AL26:AO26)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="K26" s="104">
+      <c r="K26" s="108">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7615,39 +7806,39 @@
       <c r="B27" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="105">
+      <c r="C27" s="109">
         <f>SUM('Time Sheet'!C27:F27)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="D27" s="105">
+      <c r="D27" s="109">
         <f>SUM('Time Sheet'!H27:K27)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="E27" s="105">
+      <c r="E27" s="109">
         <f>SUM('Time Sheet'!M27:P27)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="F27" s="105">
+      <c r="F27" s="109">
         <f>SUM('Time Sheet'!R27:U27)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="G27" s="105">
+      <c r="G27" s="109">
         <f>SUM('Time Sheet'!W27:Z27)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="H27" s="105">
+      <c r="H27" s="109">
         <f>SUM('Time Sheet'!AB27:AE27)*$D$58</f>
         <v>0</v>
       </c>
-      <c r="I27" s="105">
+      <c r="I27" s="109">
         <f>SUM('Time Sheet'!AG27:AJ27)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="J27" s="105">
+      <c r="J27" s="109">
         <f>SUM('Time Sheet'!AL27:AO27)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="K27" s="104">
+      <c r="K27" s="108">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7664,7 +7855,7 @@
       <c r="H28" s="69"/>
       <c r="I28" s="69"/>
       <c r="J28" s="69"/>
-      <c r="K28" s="106"/>
+      <c r="K28" s="110"/>
       <c r="L28" s="62"/>
     </row>
     <row r="29" ht="21.75" customHeight="1">
@@ -7672,39 +7863,39 @@
       <c r="B29" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="105">
+      <c r="C29" s="109">
         <f>SUM('Time Sheet'!C29:F29)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="D29" s="105">
+      <c r="D29" s="109">
         <f>SUM('Time Sheet'!H29:K29)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="E29" s="105">
+      <c r="E29" s="109">
         <f>SUM('Time Sheet'!M29:P29)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="F29" s="105">
+      <c r="F29" s="109">
         <f>SUM('Time Sheet'!R29:U29)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="G29" s="105">
+      <c r="G29" s="109">
         <f>SUM('Time Sheet'!W29:Z29)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="H29" s="105">
+      <c r="H29" s="109">
         <f>SUM('Time Sheet'!AB29:AE29)*$D$58</f>
         <v>0</v>
       </c>
-      <c r="I29" s="105">
+      <c r="I29" s="109">
         <f>SUM('Time Sheet'!AG29:AJ29)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="J29" s="105">
+      <c r="J29" s="109">
         <f>SUM('Time Sheet'!AL29:AO29)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="K29" s="104">
+      <c r="K29" s="108">
         <f t="shared" ref="K29:K42" si="2">C29+D29+E29+F29+G29+H29+I29+J29</f>
         <v>0</v>
       </c>
@@ -7715,39 +7906,39 @@
       <c r="B30" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="105">
+      <c r="C30" s="109">
         <f>SUM('Time Sheet'!C30:F30)*$D$57</f>
         <v>62.5</v>
       </c>
-      <c r="D30" s="105">
+      <c r="D30" s="109">
         <f>SUM('Time Sheet'!H30:K30)*$D$57</f>
         <v>37.5</v>
       </c>
-      <c r="E30" s="105">
+      <c r="E30" s="109">
         <f>SUM('Time Sheet'!M30:P30)*$D$57</f>
         <v>62.5</v>
       </c>
-      <c r="F30" s="105">
+      <c r="F30" s="109">
         <f>SUM('Time Sheet'!R30:U30)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="G30" s="105">
+      <c r="G30" s="109">
         <f>SUM('Time Sheet'!W30:Z30)*$D$57</f>
         <v>25</v>
       </c>
-      <c r="H30" s="105">
+      <c r="H30" s="109">
         <f>SUM('Time Sheet'!AB30:AE30)*$D$58</f>
         <v>0</v>
       </c>
-      <c r="I30" s="105">
+      <c r="I30" s="109">
         <f>SUM('Time Sheet'!AG30:AJ30)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="J30" s="105">
+      <c r="J30" s="109">
         <f>SUM('Time Sheet'!AL30:AO30)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="K30" s="104">
+      <c r="K30" s="108">
         <f t="shared" si="2"/>
         <v>187.5</v>
       </c>
@@ -7758,39 +7949,39 @@
       <c r="B31" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="105">
+      <c r="C31" s="109">
         <f>SUM('Time Sheet'!C31:F31)*$D$57</f>
         <v>50</v>
       </c>
-      <c r="D31" s="105">
+      <c r="D31" s="109">
         <f>SUM('Time Sheet'!H31:K31)*$D$57</f>
         <v>37.5</v>
       </c>
-      <c r="E31" s="105">
+      <c r="E31" s="109">
         <f>SUM('Time Sheet'!M31:P31)*$D$57</f>
         <v>25</v>
       </c>
-      <c r="F31" s="105">
+      <c r="F31" s="109">
         <f>SUM('Time Sheet'!R31:U31)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="G31" s="105">
+      <c r="G31" s="109">
         <f>SUM('Time Sheet'!W31:Z31)*$D$57</f>
         <v>25</v>
       </c>
-      <c r="H31" s="105">
+      <c r="H31" s="109">
         <f>SUM('Time Sheet'!AB31:AE31)*$D$58</f>
         <v>0</v>
       </c>
-      <c r="I31" s="105">
+      <c r="I31" s="109">
         <f>SUM('Time Sheet'!AG31:AJ31)*$D$57</f>
         <v>25</v>
       </c>
-      <c r="J31" s="105">
+      <c r="J31" s="109">
         <f>SUM('Time Sheet'!AL31:AO31)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="K31" s="104">
+      <c r="K31" s="108">
         <f t="shared" si="2"/>
         <v>162.5</v>
       </c>
@@ -7801,39 +7992,39 @@
       <c r="B32" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="105">
+      <c r="C32" s="109">
         <f>SUM('Time Sheet'!C32:F32)*$D$57</f>
         <v>50</v>
       </c>
-      <c r="D32" s="105">
+      <c r="D32" s="109">
         <f>SUM('Time Sheet'!H32:K32)*$D$57</f>
         <v>50</v>
       </c>
-      <c r="E32" s="105">
+      <c r="E32" s="109">
         <f>SUM('Time Sheet'!M32:P32)*$D$57</f>
         <v>37.5</v>
       </c>
-      <c r="F32" s="105">
+      <c r="F32" s="109">
         <f>SUM('Time Sheet'!R32:U32)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="G32" s="105">
+      <c r="G32" s="109">
         <f>SUM('Time Sheet'!W32:Z32)*$D$57</f>
         <v>50</v>
       </c>
-      <c r="H32" s="105">
+      <c r="H32" s="109">
         <f>SUM('Time Sheet'!AB32:AE32)*$D$58</f>
         <v>0</v>
       </c>
-      <c r="I32" s="105">
+      <c r="I32" s="109">
         <f>SUM('Time Sheet'!AG32:AJ32)*$D$57</f>
         <v>12.5</v>
       </c>
-      <c r="J32" s="105">
+      <c r="J32" s="109">
         <f>SUM('Time Sheet'!AL32:AO32)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="K32" s="104">
+      <c r="K32" s="108">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
@@ -7842,41 +8033,41 @@
     <row r="33" ht="21.75" customHeight="1">
       <c r="A33" s="62"/>
       <c r="B33" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="105">
+        <v>55</v>
+      </c>
+      <c r="C33" s="109">
         <f>SUM('Time Sheet'!C33:F33)*$D$57</f>
         <v>100</v>
       </c>
-      <c r="D33" s="105">
+      <c r="D33" s="109">
         <f>SUM('Time Sheet'!H33:K33)*$D$57</f>
         <v>75</v>
       </c>
-      <c r="E33" s="105">
+      <c r="E33" s="109">
         <f>SUM('Time Sheet'!M33:P33)*$D$57</f>
         <v>37.5</v>
       </c>
-      <c r="F33" s="105">
+      <c r="F33" s="109">
         <f>SUM('Time Sheet'!R33:U33)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="G33" s="105">
+      <c r="G33" s="109">
         <f>SUM('Time Sheet'!W33:Z33)*$D$57</f>
         <v>62.5</v>
       </c>
-      <c r="H33" s="105">
+      <c r="H33" s="109">
         <f>SUM('Time Sheet'!AB33:AE33)*$D$58</f>
         <v>0</v>
       </c>
-      <c r="I33" s="105">
+      <c r="I33" s="109">
         <f>SUM('Time Sheet'!AG33:AJ33)*$D$57</f>
         <v>37.5</v>
       </c>
-      <c r="J33" s="105">
+      <c r="J33" s="109">
         <f>SUM('Time Sheet'!AL33:AO33)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="K33" s="104">
+      <c r="K33" s="108">
         <f t="shared" si="2"/>
         <v>312.5</v>
       </c>
@@ -7885,41 +8076,41 @@
     <row r="34" ht="21.75" customHeight="1">
       <c r="A34" s="62"/>
       <c r="B34" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="105">
+        <v>61</v>
+      </c>
+      <c r="C34" s="109">
         <f>SUM('Time Sheet'!C34:F34)*$D$57</f>
         <v>150</v>
       </c>
-      <c r="D34" s="105">
+      <c r="D34" s="109">
         <f>SUM('Time Sheet'!H34:K34)*$D$57</f>
         <v>100</v>
       </c>
-      <c r="E34" s="105">
+      <c r="E34" s="109">
         <f>SUM('Time Sheet'!M34:P34)*$D$57</f>
         <v>75</v>
       </c>
-      <c r="F34" s="105">
+      <c r="F34" s="109">
         <f>SUM('Time Sheet'!R34:U34)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="G34" s="105">
+      <c r="G34" s="109">
         <f>SUM('Time Sheet'!W34:Z34)*$D$57</f>
         <v>50</v>
       </c>
-      <c r="H34" s="105">
+      <c r="H34" s="109">
         <f>SUM('Time Sheet'!AB34:AE34)*$D$58</f>
         <v>0</v>
       </c>
-      <c r="I34" s="105">
+      <c r="I34" s="109">
         <f>SUM('Time Sheet'!AG34:AJ34)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="J34" s="105">
+      <c r="J34" s="109">
         <f>SUM('Time Sheet'!AL34:AO34)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="K34" s="104">
+      <c r="K34" s="108">
         <f t="shared" si="2"/>
         <v>375</v>
       </c>
@@ -7928,41 +8119,41 @@
     <row r="35" ht="21.75" customHeight="1">
       <c r="A35" s="62"/>
       <c r="B35" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="105">
+        <v>66</v>
+      </c>
+      <c r="C35" s="109">
         <f>SUM('Time Sheet'!C35:F35)*$D$57</f>
         <v>62.5</v>
       </c>
-      <c r="D35" s="105">
+      <c r="D35" s="109">
         <f>SUM('Time Sheet'!H35:K35)*$D$57</f>
         <v>62.5</v>
       </c>
-      <c r="E35" s="105">
+      <c r="E35" s="109">
         <f>SUM('Time Sheet'!M35:P35)*$D$57</f>
         <v>37.5</v>
       </c>
-      <c r="F35" s="105">
+      <c r="F35" s="109">
         <f>SUM('Time Sheet'!R35:U35)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="G35" s="105">
+      <c r="G35" s="109">
         <f>SUM('Time Sheet'!W35:Z35)*$D$57</f>
         <v>50</v>
       </c>
-      <c r="H35" s="105">
+      <c r="H35" s="109">
         <f>SUM('Time Sheet'!AB35:AE35)*$D$58</f>
         <v>0</v>
       </c>
-      <c r="I35" s="105">
+      <c r="I35" s="109">
         <f>SUM('Time Sheet'!AG35:AJ35)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="J35" s="105">
+      <c r="J35" s="109">
         <f>SUM('Time Sheet'!AL35:AO35)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="K35" s="104">
+      <c r="K35" s="108">
         <f t="shared" si="2"/>
         <v>212.5</v>
       </c>
@@ -7971,170 +8162,170 @@
     <row r="36" ht="21.75" customHeight="1">
       <c r="A36" s="62"/>
       <c r="B36" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="105">
+        <v>71</v>
+      </c>
+      <c r="C36" s="109">
         <f>SUM('Time Sheet'!C36:F36)*$D$57</f>
         <v>112.5</v>
       </c>
-      <c r="D36" s="105">
+      <c r="D36" s="109">
         <f>SUM('Time Sheet'!H36:K36)*$D$57</f>
         <v>75</v>
       </c>
-      <c r="E36" s="105">
+      <c r="E36" s="109">
         <f>SUM('Time Sheet'!M36:P36)*$D$57</f>
-        <v>46.875</v>
-      </c>
-      <c r="F36" s="105">
+        <v>50</v>
+      </c>
+      <c r="F36" s="109">
         <f>SUM('Time Sheet'!R36:U36)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="G36" s="105">
+      <c r="G36" s="109">
         <f>SUM('Time Sheet'!W36:Z36)*$D$57</f>
         <v>25</v>
       </c>
-      <c r="H36" s="105">
+      <c r="H36" s="109">
         <f>SUM('Time Sheet'!AB36:AE36)*$D$58</f>
         <v>0</v>
       </c>
-      <c r="I36" s="105">
+      <c r="I36" s="109">
         <f>SUM('Time Sheet'!AG36:AJ36)*$D$57</f>
         <v>25</v>
       </c>
-      <c r="J36" s="105">
+      <c r="J36" s="109">
         <f>SUM('Time Sheet'!AL36:AO36)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="K36" s="104">
+      <c r="K36" s="108">
         <f t="shared" si="2"/>
-        <v>284.375</v>
+        <v>287.5</v>
       </c>
       <c r="L36" s="62"/>
     </row>
     <row r="37" ht="21.75" customHeight="1">
       <c r="A37" s="62"/>
       <c r="B37" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="105">
+        <v>76</v>
+      </c>
+      <c r="C37" s="109">
         <f>SUM('Time Sheet'!C37:F37)*$D$57</f>
         <v>125</v>
       </c>
-      <c r="D37" s="105">
+      <c r="D37" s="109">
         <f>SUM('Time Sheet'!H37:K37)*$D$57</f>
         <v>50</v>
       </c>
-      <c r="E37" s="105">
+      <c r="E37" s="109">
         <f>SUM('Time Sheet'!M37:P37)*$D$57</f>
         <v>43.75</v>
       </c>
-      <c r="F37" s="105">
+      <c r="F37" s="109">
         <f>SUM('Time Sheet'!R37:U37)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="G37" s="105">
+      <c r="G37" s="109">
         <f>SUM('Time Sheet'!W37:Z37)*$D$57</f>
         <v>75</v>
       </c>
-      <c r="H37" s="105">
+      <c r="H37" s="109">
         <f>SUM('Time Sheet'!AB37:AE37)*$D$58</f>
         <v>0</v>
       </c>
-      <c r="I37" s="105">
+      <c r="I37" s="109">
         <f>SUM('Time Sheet'!AG37:AJ37)*$D$57</f>
-        <v>25</v>
-      </c>
-      <c r="J37" s="105">
+        <v>50</v>
+      </c>
+      <c r="J37" s="109">
         <f>SUM('Time Sheet'!AL37:AO37)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="K37" s="104">
+      <c r="K37" s="108">
         <f t="shared" si="2"/>
-        <v>318.75</v>
+        <v>343.75</v>
       </c>
       <c r="L37" s="62"/>
     </row>
     <row r="38" ht="21.75" customHeight="1">
       <c r="A38" s="62"/>
       <c r="B38" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="105">
+        <v>82</v>
+      </c>
+      <c r="C38" s="109">
         <f>SUM('Time Sheet'!C38:F38)*$D$57</f>
         <v>175</v>
       </c>
-      <c r="D38" s="105">
+      <c r="D38" s="109">
         <f>SUM('Time Sheet'!H38:K38)*$D$57</f>
         <v>62.5</v>
       </c>
-      <c r="E38" s="105">
+      <c r="E38" s="109">
         <f>SUM('Time Sheet'!M38:P38)*$D$57</f>
         <v>100</v>
       </c>
-      <c r="F38" s="105">
+      <c r="F38" s="109">
         <f>SUM('Time Sheet'!R38:U38)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="G38" s="105">
+      <c r="G38" s="109">
         <f>SUM('Time Sheet'!W38:Z38)*$D$57</f>
         <v>75</v>
       </c>
-      <c r="H38" s="105">
+      <c r="H38" s="109">
         <f>SUM('Time Sheet'!AB38:AE38)*$D$58</f>
         <v>0</v>
       </c>
-      <c r="I38" s="105">
+      <c r="I38" s="109">
         <f>SUM('Time Sheet'!AG38:AJ38)*$D$57</f>
-        <v>12.5</v>
-      </c>
-      <c r="J38" s="105">
+        <v>25</v>
+      </c>
+      <c r="J38" s="109">
         <f>SUM('Time Sheet'!AL38:AO38)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="K38" s="104">
+      <c r="K38" s="108">
         <f t="shared" si="2"/>
-        <v>425</v>
+        <v>437.5</v>
       </c>
       <c r="L38" s="62"/>
     </row>
     <row r="39" ht="21.75" customHeight="1">
       <c r="A39" s="62"/>
       <c r="B39" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="105">
+        <v>87</v>
+      </c>
+      <c r="C39" s="109">
         <f>SUM('Time Sheet'!C39:F39)*$D$57</f>
         <v>125</v>
       </c>
-      <c r="D39" s="105">
+      <c r="D39" s="109">
         <f>SUM('Time Sheet'!H39:K39)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="E39" s="105">
+      <c r="E39" s="109">
         <f>SUM('Time Sheet'!M39:P39)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="F39" s="105">
+      <c r="F39" s="109">
         <f>SUM('Time Sheet'!R39:U39)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="G39" s="105">
+      <c r="G39" s="109">
         <f>SUM('Time Sheet'!W39:Z39)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="H39" s="105">
+      <c r="H39" s="109">
         <f>SUM('Time Sheet'!AB39:AE39)*$D$58</f>
         <v>0</v>
       </c>
-      <c r="I39" s="105">
+      <c r="I39" s="109">
         <f>SUM('Time Sheet'!AG39:AJ39)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="J39" s="105">
+      <c r="J39" s="109">
         <f>SUM('Time Sheet'!AL39:AO39)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="K39" s="104">
+      <c r="K39" s="108">
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
@@ -8143,41 +8334,41 @@
     <row r="40" ht="21.75" customHeight="1">
       <c r="A40" s="62"/>
       <c r="B40" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="105">
+        <v>89</v>
+      </c>
+      <c r="C40" s="109">
         <f>SUM('Time Sheet'!C40:F40)*$D$57</f>
         <v>12.5</v>
       </c>
-      <c r="D40" s="105">
+      <c r="D40" s="109">
         <f>SUM('Time Sheet'!H40:K40)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="E40" s="105">
+      <c r="E40" s="109">
         <f>SUM('Time Sheet'!M40:P40)*$D$57</f>
         <v>12.5</v>
       </c>
-      <c r="F40" s="105">
+      <c r="F40" s="109">
         <f>SUM('Time Sheet'!R40:U40)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="G40" s="105">
+      <c r="G40" s="109">
         <f>SUM('Time Sheet'!W40:Z40)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="H40" s="105">
+      <c r="H40" s="109">
         <f>SUM('Time Sheet'!AB40:AE40)*$D$58</f>
         <v>0</v>
       </c>
-      <c r="I40" s="105">
+      <c r="I40" s="109">
         <f>SUM('Time Sheet'!AG40:AJ40)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="J40" s="105">
+      <c r="J40" s="109">
         <f>SUM('Time Sheet'!AL40:AO40)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="K40" s="104">
+      <c r="K40" s="108">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -8186,41 +8377,41 @@
     <row r="41" ht="21.75" customHeight="1">
       <c r="A41" s="62"/>
       <c r="B41" s="63" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" s="105">
+        <v>92</v>
+      </c>
+      <c r="C41" s="109">
         <f>SUM('Time Sheet'!C41:F41)*$D$57</f>
         <v>25</v>
       </c>
-      <c r="D41" s="105">
+      <c r="D41" s="109">
         <f>SUM('Time Sheet'!H41:K41)*$D$57</f>
         <v>75</v>
       </c>
-      <c r="E41" s="105">
+      <c r="E41" s="109">
         <f>SUM('Time Sheet'!M41:P41)*$D$57</f>
         <v>100</v>
       </c>
-      <c r="F41" s="105">
+      <c r="F41" s="109">
         <f>SUM('Time Sheet'!R41:U41)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="G41" s="105">
+      <c r="G41" s="109">
         <f>SUM('Time Sheet'!W41:Z41)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="H41" s="105">
+      <c r="H41" s="109">
         <f>SUM('Time Sheet'!AB41:AE41)*$D$58</f>
         <v>0</v>
       </c>
-      <c r="I41" s="105">
+      <c r="I41" s="109">
         <f>SUM('Time Sheet'!AG41:AJ41)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="J41" s="105">
+      <c r="J41" s="109">
         <f>SUM('Time Sheet'!AL41:AO41)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="K41" s="104">
+      <c r="K41" s="108">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
@@ -8229,41 +8420,41 @@
     <row r="42" ht="21.75" customHeight="1">
       <c r="A42" s="62"/>
       <c r="B42" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="105">
+        <v>96</v>
+      </c>
+      <c r="C42" s="109">
         <f>SUM('Time Sheet'!C42:F42)*$D$57</f>
         <v>125</v>
       </c>
-      <c r="D42" s="105">
+      <c r="D42" s="109">
         <f>SUM('Time Sheet'!H42:K42)*$D$57</f>
         <v>200</v>
       </c>
-      <c r="E42" s="105">
+      <c r="E42" s="109">
         <f>SUM('Time Sheet'!M42:P42)*$D$57</f>
         <v>62.5</v>
       </c>
-      <c r="F42" s="105">
+      <c r="F42" s="109">
         <f>SUM('Time Sheet'!R42:U42)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="G42" s="105">
+      <c r="G42" s="109">
         <f>SUM('Time Sheet'!W42:Z42)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="H42" s="105">
+      <c r="H42" s="109">
         <f>SUM('Time Sheet'!AB42:AE42)*$D$58</f>
         <v>0</v>
       </c>
-      <c r="I42" s="105">
+      <c r="I42" s="109">
         <f>SUM('Time Sheet'!AG42:AJ42)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="J42" s="105">
+      <c r="J42" s="109">
         <f>SUM('Time Sheet'!AL42:AO42)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="K42" s="104">
+      <c r="K42" s="108">
         <f t="shared" si="2"/>
         <v>387.5</v>
       </c>
@@ -8280,47 +8471,47 @@
       <c r="H43" s="69"/>
       <c r="I43" s="69"/>
       <c r="J43" s="69"/>
-      <c r="K43" s="106"/>
+      <c r="K43" s="110"/>
       <c r="L43" s="62"/>
     </row>
     <row r="44" ht="21.75" customHeight="1">
       <c r="A44" s="62"/>
       <c r="B44" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="C44" s="105">
+        <v>100</v>
+      </c>
+      <c r="C44" s="109">
         <f>SUM('Time Sheet'!C44:F44)*$D$57</f>
         <v>250</v>
       </c>
-      <c r="D44" s="105">
+      <c r="D44" s="109">
         <f>SUM('Time Sheet'!H44:K44)*$D$57</f>
         <v>125</v>
       </c>
-      <c r="E44" s="105">
+      <c r="E44" s="109">
         <f>SUM('Time Sheet'!M44:P44)*$D$57</f>
         <v>50</v>
       </c>
-      <c r="F44" s="105">
+      <c r="F44" s="109">
         <f>SUM('Time Sheet'!R44:U44)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="G44" s="105">
+      <c r="G44" s="109">
         <f>SUM('Time Sheet'!W44:Z44)*$D$57</f>
         <v>87.5</v>
       </c>
-      <c r="H44" s="105">
+      <c r="H44" s="109">
         <f>SUM('Time Sheet'!AB44:AE44)*$D$58</f>
         <v>0</v>
       </c>
-      <c r="I44" s="105">
+      <c r="I44" s="109">
         <f>SUM('Time Sheet'!AG44:AJ44)*$D$57</f>
         <v>25</v>
       </c>
-      <c r="J44" s="105">
+      <c r="J44" s="109">
         <f>SUM('Time Sheet'!AL44:AO44)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="K44" s="104">
+      <c r="K44" s="108">
         <f t="shared" ref="K44:K53" si="3">C44+D44+E44+F44+G44+H44+I44+J44</f>
         <v>537.5</v>
       </c>
@@ -8329,41 +8520,41 @@
     <row r="45" ht="21.75" customHeight="1">
       <c r="A45" s="62"/>
       <c r="B45" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="C45" s="105">
+        <v>105</v>
+      </c>
+      <c r="C45" s="109">
         <f>SUM('Time Sheet'!C45:F45)*$D$57</f>
         <v>275</v>
       </c>
-      <c r="D45" s="105">
+      <c r="D45" s="109">
         <f>SUM('Time Sheet'!H45:K45)*$D$57</f>
         <v>12.5</v>
       </c>
-      <c r="E45" s="105">
+      <c r="E45" s="109">
         <f>SUM('Time Sheet'!M45:P45)*$D$57</f>
         <v>75</v>
       </c>
-      <c r="F45" s="105">
+      <c r="F45" s="109">
         <f>SUM('Time Sheet'!R45:U45)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="G45" s="105">
+      <c r="G45" s="109">
         <f>SUM('Time Sheet'!W45:Z45)*$D$57</f>
         <v>25</v>
       </c>
-      <c r="H45" s="105">
+      <c r="H45" s="109">
         <f>SUM('Time Sheet'!AB45:AE45)*$D$58</f>
         <v>0</v>
       </c>
-      <c r="I45" s="105">
+      <c r="I45" s="109">
         <f>SUM('Time Sheet'!AG45:AJ45)*$D$57</f>
         <v>25</v>
       </c>
-      <c r="J45" s="105">
+      <c r="J45" s="109">
         <f>SUM('Time Sheet'!AL45:AO45)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="K45" s="104">
+      <c r="K45" s="108">
         <f t="shared" si="3"/>
         <v>412.5</v>
       </c>
@@ -8372,41 +8563,41 @@
     <row r="46" ht="21.75" customHeight="1">
       <c r="A46" s="62"/>
       <c r="B46" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="105">
+        <v>110</v>
+      </c>
+      <c r="C46" s="109">
         <f>SUM('Time Sheet'!C46:F46)*$D$57</f>
         <v>200</v>
       </c>
-      <c r="D46" s="105">
+      <c r="D46" s="109">
         <f>SUM('Time Sheet'!H46:K46)*$D$57</f>
         <v>87.5</v>
       </c>
-      <c r="E46" s="105">
+      <c r="E46" s="109">
         <f>SUM('Time Sheet'!M46:P46)*$D$57</f>
         <v>87.5</v>
       </c>
-      <c r="F46" s="105">
+      <c r="F46" s="109">
         <f>SUM('Time Sheet'!R46:U46)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="G46" s="105">
+      <c r="G46" s="109">
         <f>SUM('Time Sheet'!W46:Z46)*$D$57</f>
         <v>75</v>
       </c>
-      <c r="H46" s="105">
+      <c r="H46" s="109">
         <f>SUM('Time Sheet'!AB46:AE46)*$D$58</f>
         <v>0</v>
       </c>
-      <c r="I46" s="105">
+      <c r="I46" s="109">
         <f>SUM('Time Sheet'!AG46:AJ46)*$D$57</f>
         <v>50</v>
       </c>
-      <c r="J46" s="105">
+      <c r="J46" s="109">
         <f>SUM('Time Sheet'!AL46:AO46)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="K46" s="104">
+      <c r="K46" s="108">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
@@ -8415,256 +8606,256 @@
     <row r="47" ht="21.75" customHeight="1">
       <c r="A47" s="62"/>
       <c r="B47" s="63" t="s">
-        <v>110</v>
-      </c>
-      <c r="C47" s="105">
+        <v>116</v>
+      </c>
+      <c r="C47" s="109">
         <f>SUM('Time Sheet'!C47:F47)*$D$57</f>
         <v>137.5</v>
       </c>
-      <c r="D47" s="105">
+      <c r="D47" s="109">
         <f>SUM('Time Sheet'!H47:K47)*$D$57</f>
         <v>43.75</v>
       </c>
-      <c r="E47" s="105">
+      <c r="E47" s="109">
         <f>SUM('Time Sheet'!M47:P47)*$D$57</f>
         <v>100</v>
       </c>
-      <c r="F47" s="105">
+      <c r="F47" s="109">
         <f>SUM('Time Sheet'!R47:U47)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="G47" s="105">
+      <c r="G47" s="109">
         <f>SUM('Time Sheet'!W47:Z47)*$D$57</f>
         <v>50</v>
       </c>
-      <c r="H47" s="105">
+      <c r="H47" s="109">
         <f>SUM('Time Sheet'!AB47:AE47)*$D$58</f>
         <v>0</v>
       </c>
-      <c r="I47" s="105">
+      <c r="I47" s="109">
         <f>SUM('Time Sheet'!AG47:AJ47)*$D$57</f>
-        <v>0</v>
-      </c>
-      <c r="J47" s="105">
+        <v>25</v>
+      </c>
+      <c r="J47" s="109">
         <f>SUM('Time Sheet'!AL47:AO47)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="K47" s="104">
+      <c r="K47" s="108">
         <f t="shared" si="3"/>
-        <v>331.25</v>
+        <v>356.25</v>
       </c>
       <c r="L47" s="62"/>
     </row>
     <row r="48" ht="21.75" customHeight="1">
       <c r="A48" s="62"/>
       <c r="B48" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="C48" s="105">
+        <v>122</v>
+      </c>
+      <c r="C48" s="109">
         <f>SUM('Time Sheet'!C48:F48)*$D$57</f>
         <v>168.75</v>
       </c>
-      <c r="D48" s="105">
+      <c r="D48" s="109">
         <f>SUM('Time Sheet'!H48:K48)*$D$57</f>
         <v>156.25</v>
       </c>
-      <c r="E48" s="105">
+      <c r="E48" s="109">
         <f>SUM('Time Sheet'!M48:P48)*$D$57</f>
         <v>118.75</v>
       </c>
-      <c r="F48" s="105">
+      <c r="F48" s="109">
         <f>SUM('Time Sheet'!R48:U48)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="G48" s="105">
+      <c r="G48" s="109">
         <f>SUM('Time Sheet'!W48:Z48)*$D$57</f>
         <v>118.75</v>
       </c>
-      <c r="H48" s="105">
+      <c r="H48" s="109">
         <f>SUM('Time Sheet'!AB48:AE48)*$D$58</f>
         <v>0</v>
       </c>
-      <c r="I48" s="105">
+      <c r="I48" s="109">
         <f>SUM('Time Sheet'!AG48:AJ48)*$D$57</f>
-        <v>0</v>
-      </c>
-      <c r="J48" s="105">
+        <v>56.25</v>
+      </c>
+      <c r="J48" s="109">
         <f>SUM('Time Sheet'!AL48:AO48)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="K48" s="104">
+      <c r="K48" s="108">
         <f t="shared" si="3"/>
-        <v>562.5</v>
+        <v>618.75</v>
       </c>
       <c r="L48" s="62"/>
     </row>
     <row r="49" ht="21.75" customHeight="1">
       <c r="A49" s="62"/>
       <c r="B49" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="C49" s="105">
+        <v>127</v>
+      </c>
+      <c r="C49" s="109">
         <f>SUM('Time Sheet'!C49:F49)*$D$57</f>
         <v>181.25</v>
       </c>
-      <c r="D49" s="105">
+      <c r="D49" s="109">
         <f>SUM('Time Sheet'!H49:K49)*$D$57</f>
         <v>193.75</v>
       </c>
-      <c r="E49" s="105">
+      <c r="E49" s="109">
         <f>SUM('Time Sheet'!M49:P49)*$D$57</f>
         <v>193.75</v>
       </c>
-      <c r="F49" s="105">
+      <c r="F49" s="109">
         <f>SUM('Time Sheet'!R49:U49)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="G49" s="105">
+      <c r="G49" s="109">
         <f>SUM('Time Sheet'!W49:Z49)*$D$57</f>
         <v>156.25</v>
       </c>
-      <c r="H49" s="105">
+      <c r="H49" s="109">
         <f>SUM('Time Sheet'!AB49:AE49)*$D$58</f>
         <v>0</v>
       </c>
-      <c r="I49" s="105">
+      <c r="I49" s="109">
         <f>SUM('Time Sheet'!AG49:AJ49)*$D$57</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="105">
+        <v>56.25</v>
+      </c>
+      <c r="J49" s="109">
         <f>SUM('Time Sheet'!AL49:AO49)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="K49" s="104">
+      <c r="K49" s="108">
         <f t="shared" si="3"/>
-        <v>725</v>
+        <v>781.25</v>
       </c>
       <c r="L49" s="62"/>
     </row>
     <row r="50" ht="21.75" customHeight="1">
       <c r="A50" s="62"/>
       <c r="B50" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="C50" s="105">
+        <v>133</v>
+      </c>
+      <c r="C50" s="109">
         <f>SUM('Time Sheet'!C50:F50)*$D$57</f>
         <v>300</v>
       </c>
-      <c r="D50" s="105">
+      <c r="D50" s="109">
         <f>SUM('Time Sheet'!H50:K50)*$D$57</f>
         <v>62.5</v>
       </c>
-      <c r="E50" s="105">
+      <c r="E50" s="109">
         <f>SUM('Time Sheet'!M50:P50)*$D$57</f>
         <v>137.5</v>
       </c>
-      <c r="F50" s="105">
+      <c r="F50" s="109">
         <f>SUM('Time Sheet'!R50:U50)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="G50" s="105">
+      <c r="G50" s="109">
         <f>SUM('Time Sheet'!W50:Z50)*$D$57</f>
         <v>206.25</v>
       </c>
-      <c r="H50" s="105">
+      <c r="H50" s="109">
         <f>SUM('Time Sheet'!AB50:AE50)*$D$58</f>
         <v>0</v>
       </c>
-      <c r="I50" s="105">
+      <c r="I50" s="109">
         <f>SUM('Time Sheet'!AG50:AJ50)*$D$57</f>
-        <v>0</v>
-      </c>
-      <c r="J50" s="105">
+        <v>75</v>
+      </c>
+      <c r="J50" s="109">
         <f>SUM('Time Sheet'!AL50:AO50)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="K50" s="104">
+      <c r="K50" s="108">
         <f t="shared" si="3"/>
-        <v>706.25</v>
+        <v>781.25</v>
       </c>
       <c r="L50" s="62"/>
     </row>
     <row r="51" ht="21.75" customHeight="1">
       <c r="A51" s="62"/>
       <c r="B51" s="63" t="s">
-        <v>130</v>
-      </c>
-      <c r="C51" s="105">
+        <v>138</v>
+      </c>
+      <c r="C51" s="109">
         <f>SUM('Time Sheet'!C51:F51)*$D$57</f>
         <v>131.25</v>
       </c>
-      <c r="D51" s="105">
+      <c r="D51" s="109">
         <f>SUM('Time Sheet'!H51:K51)*$D$57</f>
         <v>150</v>
       </c>
-      <c r="E51" s="105">
+      <c r="E51" s="109">
         <f>SUM('Time Sheet'!M51:P51)*$D$57</f>
-        <v>125</v>
-      </c>
-      <c r="F51" s="105">
+        <v>175</v>
+      </c>
+      <c r="F51" s="109">
         <f>SUM('Time Sheet'!R51:U51)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="G51" s="105">
+      <c r="G51" s="109">
         <f>SUM('Time Sheet'!W51:Z51)*$D$57</f>
         <v>300</v>
       </c>
-      <c r="H51" s="105">
+      <c r="H51" s="109">
         <f>SUM('Time Sheet'!AB51:AE51)*$D$58</f>
         <v>0</v>
       </c>
-      <c r="I51" s="105">
+      <c r="I51" s="109">
         <f>SUM('Time Sheet'!AG51:AJ51)*$D$57</f>
-        <v>0</v>
-      </c>
-      <c r="J51" s="105">
+        <v>100</v>
+      </c>
+      <c r="J51" s="109">
         <f>SUM('Time Sheet'!AL51:AO51)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="K51" s="104">
+      <c r="K51" s="108">
         <f t="shared" si="3"/>
-        <v>706.25</v>
+        <v>856.25</v>
       </c>
       <c r="L51" s="62"/>
     </row>
     <row r="52" ht="21.75" customHeight="1">
       <c r="A52" s="62"/>
       <c r="B52" s="63" t="s">
-        <v>135</v>
-      </c>
-      <c r="C52" s="105">
+        <v>144</v>
+      </c>
+      <c r="C52" s="109">
         <f>SUM('Time Sheet'!C52:F52)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="D52" s="105">
+      <c r="D52" s="109">
         <f>SUM('Time Sheet'!H52:K52)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="E52" s="105">
+      <c r="E52" s="109">
         <f>SUM('Time Sheet'!M52:P52)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="F52" s="105">
+      <c r="F52" s="109">
         <f>SUM('Time Sheet'!R52:U52)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="G52" s="105">
+      <c r="G52" s="109">
         <f>SUM('Time Sheet'!W52:Z52)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="H52" s="105">
+      <c r="H52" s="109">
         <f>SUM('Time Sheet'!AB52:AE52)*$D$58</f>
         <v>0</v>
       </c>
-      <c r="I52" s="105">
+      <c r="I52" s="109">
         <f>SUM('Time Sheet'!AG52:AJ52)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="J52" s="105">
+      <c r="J52" s="109">
         <f>SUM('Time Sheet'!AL52:AO52)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="K52" s="104">
+      <c r="K52" s="108">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8673,41 +8864,41 @@
     <row r="53" ht="21.75" customHeight="1">
       <c r="A53" s="62"/>
       <c r="B53" s="63" t="s">
-        <v>136</v>
-      </c>
-      <c r="C53" s="105">
+        <v>145</v>
+      </c>
+      <c r="C53" s="109">
         <f>SUM('Time Sheet'!C53:F53)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="D53" s="105">
+      <c r="D53" s="109">
         <f>SUM('Time Sheet'!H53:K53)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="E53" s="105">
+      <c r="E53" s="109">
         <f>SUM('Time Sheet'!M53:P53)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="F53" s="105">
+      <c r="F53" s="109">
         <f>SUM('Time Sheet'!R53:U53)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="G53" s="105">
+      <c r="G53" s="109">
         <f>SUM('Time Sheet'!W53:Z53)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="H53" s="105">
+      <c r="H53" s="109">
         <f>SUM('Time Sheet'!AB53:AE53)*$D$58</f>
         <v>0</v>
       </c>
-      <c r="I53" s="105">
+      <c r="I53" s="109">
         <f>SUM('Time Sheet'!AG53:AJ53)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="J53" s="105">
+      <c r="J53" s="109">
         <f>SUM('Time Sheet'!AL53:AO53)*$D$57</f>
         <v>0</v>
       </c>
-      <c r="K53" s="104">
+      <c r="K53" s="108">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8716,86 +8907,86 @@
     <row r="54" ht="21.75" customHeight="1">
       <c r="A54" s="62"/>
       <c r="B54" s="65"/>
-      <c r="C54" s="107"/>
-      <c r="D54" s="74"/>
-      <c r="E54" s="74"/>
-      <c r="F54" s="74"/>
-      <c r="G54" s="74"/>
-      <c r="H54" s="74"/>
-      <c r="I54" s="74"/>
-      <c r="J54" s="74"/>
-      <c r="K54" s="108"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="78"/>
+      <c r="E54" s="78"/>
+      <c r="F54" s="78"/>
+      <c r="G54" s="78"/>
+      <c r="H54" s="78"/>
+      <c r="I54" s="78"/>
+      <c r="J54" s="78"/>
+      <c r="K54" s="112"/>
       <c r="L54" s="62"/>
     </row>
     <row r="55" ht="21.0" customHeight="1">
-      <c r="A55" s="75"/>
-      <c r="B55" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="C55" s="77">
+      <c r="A55" s="79"/>
+      <c r="B55" s="80" t="s">
+        <v>149</v>
+      </c>
+      <c r="C55" s="81">
         <f t="shared" ref="C55:K55" si="4">sum(C13:C54)</f>
         <v>3018.75</v>
       </c>
-      <c r="D55" s="77">
+      <c r="D55" s="81">
         <f t="shared" si="4"/>
         <v>1818.75</v>
       </c>
-      <c r="E55" s="77">
+      <c r="E55" s="81">
         <f t="shared" si="4"/>
-        <v>1765.625</v>
-      </c>
-      <c r="F55" s="77">
+        <v>1818.75</v>
+      </c>
+      <c r="F55" s="81">
         <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
-      <c r="G55" s="77">
+      <c r="G55" s="81">
         <f t="shared" si="4"/>
         <v>1643.75</v>
       </c>
-      <c r="H55" s="77">
+      <c r="H55" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I55" s="77">
+      <c r="I55" s="81">
         <f t="shared" si="4"/>
-        <v>350</v>
-      </c>
-      <c r="J55" s="77">
+        <v>700</v>
+      </c>
+      <c r="J55" s="81">
         <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
-      <c r="K55" s="109">
+      <c r="K55" s="113">
         <f t="shared" si="4"/>
-        <v>8621.875</v>
-      </c>
-      <c r="L55" s="75"/>
+        <v>9025</v>
+      </c>
+      <c r="L55" s="79"/>
     </row>
     <row r="56" ht="21.0" customHeight="1">
-      <c r="A56" s="75"/>
-      <c r="B56" s="88"/>
-      <c r="C56" s="75"/>
-      <c r="D56" s="75"/>
-      <c r="E56" s="75"/>
-      <c r="F56" s="90"/>
-      <c r="G56" s="90"/>
-      <c r="H56" s="90"/>
-      <c r="I56" s="90"/>
-      <c r="J56" s="90"/>
-      <c r="K56" s="91"/>
-      <c r="L56" s="75"/>
+      <c r="A56" s="79"/>
+      <c r="B56" s="92"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="94"/>
+      <c r="G56" s="94"/>
+      <c r="H56" s="94"/>
+      <c r="I56" s="94"/>
+      <c r="J56" s="94"/>
+      <c r="K56" s="95"/>
+      <c r="L56" s="79"/>
     </row>
     <row r="57" ht="30.0" customHeight="1">
-      <c r="A57" s="92"/>
-      <c r="B57" s="93"/>
-      <c r="C57" s="110" t="s">
-        <v>140</v>
-      </c>
-      <c r="D57" s="111">
+      <c r="A57" s="96"/>
+      <c r="B57" s="97"/>
+      <c r="C57" s="114" t="s">
+        <v>150</v>
+      </c>
+      <c r="D57" s="115">
         <v>12.5</v>
       </c>
-      <c r="E57" s="92"/>
-      <c r="F57" s="95"/>
-      <c r="L57" s="92"/>
+      <c r="E57" s="96"/>
+      <c r="F57" s="99"/>
+      <c r="L57" s="96"/>
     </row>
     <row r="58" ht="19.5" customHeight="1">
       <c r="A58" s="62"/>
